--- a/ВГ4.2016.осень.xlsx
+++ b/ВГ4.2016.осень.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Сводная таблица'!$A$2:$AO$30</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -843,397 +843,397 @@
   </cellStyleXfs>
   <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" textRotation="90" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="true"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1531,40 +1531,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:HP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="true" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" zeroHeight="true"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" style="31" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="31" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" customWidth="1"/>
-    <col min="13" max="14" width="4.5546875" customWidth="1"/>
-    <col min="15" max="15" width="5" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" customWidth="1"/>
-    <col min="17" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="4.5546875" customWidth="1"/>
-    <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="4.5546875" customWidth="1"/>
-    <col min="21" max="23" width="3.33203125" customWidth="1"/>
-    <col min="24" max="24" width="4" customWidth="1"/>
-    <col min="25" max="25" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="39" width="3.33203125" customWidth="1"/>
-    <col min="40" max="40" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="true"/>
+    <col min="2" max="2" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="3.6640625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="15.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="12.109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="15.44140625" hidden="true" customWidth="true"/>
+    <col min="7" max="7" width="5.88671875" style="31" customWidth="true"/>
+    <col min="8" max="8" width="5.6640625" style="31" customWidth="true"/>
+    <col min="9" max="9" width="4.88671875" style="31" customWidth="true"/>
+    <col min="10" max="10" width="5.44140625" style="31" customWidth="true"/>
+    <col min="11" max="11" width="4.33203125" style="31" customWidth="true"/>
+    <col min="12" max="12" width="4.88671875" customWidth="true"/>
+    <col min="13" max="14" width="4.5546875" customWidth="true"/>
+    <col min="15" max="15" width="5" customWidth="true"/>
+    <col min="16" max="16" width="5.109375" customWidth="true"/>
+    <col min="17" max="17" width="5" customWidth="true"/>
+    <col min="18" max="18" width="4.5546875" customWidth="true"/>
+    <col min="19" max="19" width="5" customWidth="true"/>
+    <col min="20" max="20" width="4.5546875" customWidth="true"/>
+    <col min="21" max="23" width="3.33203125" customWidth="true"/>
+    <col min="24" max="24" width="4" customWidth="true"/>
+    <col min="25" max="25" width="4.109375" bestFit="true" customWidth="true"/>
+    <col min="26" max="39" width="3.33203125" customWidth="true"/>
+    <col min="40" max="40" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="41" max="41" width="5.33203125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:224" ht="20.100000000000001" customHeight="1">
+    <row r="1" ht="20.1" customHeight="true">
       <c r="A1" s="107" t="s">
         <v>32</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="HO1" s="107"/>
       <c r="HP1" s="107"/>
     </row>
-    <row r="2" spans="1:224" ht="15" thickBot="1">
+    <row r="2" ht="15" thickBot="true">
       <c r="B2" s="84">
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
@@ -1838,7 +1838,7 @@
       <c r="AN2" s="19"/>
       <c r="AO2" s="19"/>
     </row>
-    <row r="3" spans="1:224" s="3" customFormat="1">
+    <row r="3" s="3" customFormat="true">
       <c r="A3" s="115" t="s">
         <v>22</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
     </row>
-    <row r="4" spans="1:224" ht="57.6">
+    <row r="4" ht="57.6">
       <c r="A4" s="115"/>
       <c r="B4" s="122"/>
       <c r="C4" s="119"/>
@@ -2081,7 +2081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:224">
+    <row r="5">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>5.7413905133203373</v>
       </c>
     </row>
-    <row r="6" spans="1:224">
+    <row r="6">
       <c r="A6" s="24">
         <v>2</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>6.0142949967511372</v>
       </c>
     </row>
-    <row r="7" spans="1:224">
+    <row r="7">
       <c r="A7" s="24">
         <v>3</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>7.0175438596491224</v>
       </c>
     </row>
-    <row r="8" spans="1:224">
+    <row r="8">
       <c r="A8" s="24">
         <v>4</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>3.8986354775828458</v>
       </c>
     </row>
-    <row r="9" spans="1:224">
+    <row r="9">
       <c r="A9" s="24">
         <v>5</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>7.3190383365821958</v>
       </c>
     </row>
-    <row r="10" spans="1:224">
+    <row r="10">
       <c r="A10" s="24">
         <v>6</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:224">
+    <row r="11">
       <c r="A11" s="24">
         <v>7</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:224">
+    <row r="12">
       <c r="A12" s="24">
         <v>8</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>6.6692657569850553</v>
       </c>
     </row>
-    <row r="13" spans="1:224">
+    <row r="13">
       <c r="A13" s="24">
         <v>9</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:224">
+    <row r="14">
       <c r="A14" s="24">
         <v>10</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>3.8986354775828458</v>
       </c>
     </row>
-    <row r="15" spans="1:224">
+    <row r="15">
       <c r="A15" s="24">
         <v>11</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:224">
+    <row r="16">
       <c r="A16" s="24">
         <v>12</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>0.25990903183885639</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17">
       <c r="A17" s="24">
         <v>13</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>7.5555555555555554</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18">
       <c r="A18" s="24">
         <v>14</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>5.7738791423001947</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19">
       <c r="A19" s="24">
         <v>15</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>5.4580896686159841</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20">
       <c r="A20" s="24">
         <v>16</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>6.6692657569850553</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21">
       <c r="A21" s="24">
         <v>17</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22">
       <c r="A22" s="24">
         <v>18</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>5.9506172839506171</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23">
       <c r="A23" s="24">
         <v>19</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>5.1981806367771277</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24">
       <c r="A24" s="24">
         <v>20</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25">
       <c r="A25" s="24">
         <v>21</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>5.1981806367771277</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26">
       <c r="A26" s="24">
         <v>22</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="AN27" s="9"/>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28">
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="AH28" s="9"/>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29">
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30">
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -3751,7 +3751,7 @@
       <c r="Y30" s="3"/>
       <c r="AC30" s="5"/>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31">
       <c r="A31" s="116" t="s">
         <v>8</v>
       </c>
@@ -3802,7 +3802,7 @@
       <c r="AN31" s="109"/>
       <c r="AO31" s="110"/>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32">
       <c r="A32" s="116"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -3845,7 +3845,7 @@
       <c r="AN32" s="112"/>
       <c r="AO32" s="113"/>
     </row>
-    <row r="33" spans="1:41" ht="15" customHeight="1">
+    <row r="33" ht="15" customHeight="true">
       <c r="A33" s="16">
         <v>1</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34">
       <c r="A34" s="24">
         <v>2</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>7.5555555555555554</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35">
       <c r="A35" s="24">
         <v>3</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>7.3190383365821958</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36">
       <c r="A36" s="24">
         <v>4</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>7.0175438596491224</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37">
       <c r="A37" s="24">
         <v>5</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>6.6692657569850553</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38">
       <c r="A38" s="24">
         <v>6</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>6.6692657569850553</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39">
       <c r="A39" s="24">
         <v>7</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>6.0142949967511372</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40">
       <c r="A40" s="24">
         <v>8</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>5.9506172839506171</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41">
       <c r="A41" s="24">
         <v>9</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>5.7738791423001947</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42">
       <c r="A42" s="24">
         <v>10</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>5.7413905133203373</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43">
       <c r="A43" s="24">
         <v>11</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>5.4580896686159841</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44">
       <c r="A44" s="24">
         <v>12</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>5.1981806367771277</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45">
       <c r="A45" s="24">
         <v>13</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>5.1981806367771277</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46">
       <c r="A46" s="24">
         <v>14</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>3.8986354775828458</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47">
       <c r="A47" s="24">
         <v>15</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>3.8986354775828458</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48">
       <c r="A48" s="24">
         <v>16</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>0.25990903183885639</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49">
       <c r="A49" s="24">
         <v>17</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50">
       <c r="A50" s="24">
         <v>18</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51">
       <c r="A51" s="24">
         <v>19</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52">
       <c r="A52" s="24">
         <v>20</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53">
       <c r="A53" s="24">
         <v>21</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54">
       <c r="A54" s="24">
         <v>22</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:41" hidden="1">
+    <row r="55" hidden="true">
       <c r="A55" s="16"/>
       <c r="B55" s="14"/>
       <c r="C55" s="87"/>
@@ -5306,7 +5306,7 @@
       <c r="AN55" s="33"/>
       <c r="AO55" s="10"/>
     </row>
-    <row r="56" spans="1:41" hidden="1">
+    <row r="56" hidden="true">
       <c r="A56" s="16"/>
       <c r="B56" s="14"/>
       <c r="C56" s="87"/>
@@ -5349,7 +5349,7 @@
       <c r="AN56" s="33"/>
       <c r="AO56" s="10"/>
     </row>
-    <row r="57" spans="1:41" hidden="1">
+    <row r="57" hidden="true">
       <c r="A57" s="16"/>
       <c r="B57" s="14"/>
       <c r="C57" s="87"/>
@@ -5392,7 +5392,7 @@
       <c r="AN57" s="33"/>
       <c r="AO57" s="10"/>
     </row>
-    <row r="58" spans="1:41" hidden="1">
+    <row r="58" hidden="true">
       <c r="A58" s="16"/>
       <c r="B58" s="14"/>
       <c r="C58" s="87"/>
@@ -5435,7 +5435,7 @@
       <c r="AN58" s="33"/>
       <c r="AO58" s="10"/>
     </row>
-    <row r="59" spans="1:41" ht="15" hidden="1" thickBot="1">
+    <row r="59" ht="15" hidden="true" thickBot="true">
       <c r="A59" s="16"/>
       <c r="B59" s="14"/>
       <c r="C59" s="87"/>
@@ -5478,7 +5478,7 @@
       <c r="AN59" s="33"/>
       <c r="AO59" s="10"/>
     </row>
-    <row r="60" spans="1:41" ht="15" hidden="1" customHeight="1">
+    <row r="60" ht="15" hidden="true" customHeight="true">
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -5518,34 +5518,34 @@
       <c r="AM60" s="9"/>
       <c r="AN60" s="9"/>
     </row>
-    <row r="61" spans="1:41" ht="15" hidden="1" customHeight="1"/>
-    <row r="62" spans="1:41" hidden="1"/>
-    <row r="63" spans="1:41" hidden="1"/>
-    <row r="64" spans="1:41" hidden="1"/>
-    <row r="65" hidden="1"/>
-    <row r="66" hidden="1"/>
-    <row r="67" hidden="1"/>
-    <row r="68" hidden="1"/>
-    <row r="69" hidden="1"/>
-    <row r="70" hidden="1"/>
-    <row r="71" hidden="1"/>
-    <row r="72" hidden="1"/>
-    <row r="73" hidden="1"/>
-    <row r="74" hidden="1"/>
-    <row r="75" hidden="1"/>
-    <row r="76" hidden="1"/>
-    <row r="77" hidden="1"/>
-    <row r="78" hidden="1"/>
-    <row r="79" hidden="1"/>
-    <row r="80" hidden="1"/>
-    <row r="81" hidden="1"/>
-    <row r="82" hidden="1"/>
-    <row r="83" hidden="1"/>
-    <row r="84" hidden="1"/>
-    <row r="85" hidden="1"/>
+    <row r="61" ht="15" hidden="true" customHeight="true"/>
+    <row r="62" hidden="true"/>
+    <row r="63" hidden="true"/>
+    <row r="64" hidden="true"/>
+    <row r="65" hidden="true"/>
+    <row r="66" hidden="true"/>
+    <row r="67" hidden="true"/>
+    <row r="68" hidden="true"/>
+    <row r="69" hidden="true"/>
+    <row r="70" hidden="true"/>
+    <row r="71" hidden="true"/>
+    <row r="72" hidden="true"/>
+    <row r="73" hidden="true"/>
+    <row r="74" hidden="true"/>
+    <row r="75" hidden="true"/>
+    <row r="76" hidden="true"/>
+    <row r="77" hidden="true"/>
+    <row r="78" hidden="true"/>
+    <row r="79" hidden="true"/>
+    <row r="80" hidden="true"/>
+    <row r="81" hidden="true"/>
+    <row r="82" hidden="true"/>
+    <row r="83" hidden="true"/>
+    <row r="84" hidden="true"/>
+    <row r="85" hidden="true"/>
   </sheetData>
   <sortState ref="B33:AO54">
-    <sortCondition descending="1" ref="AO33:AO54"/>
+    <sortCondition descending="true" ref="AO33:AO54"/>
   </sortState>
   <mergeCells count="14">
     <mergeCell ref="A1:HP1"/>
@@ -5563,7 +5563,7 @@
     <mergeCell ref="G3:M3"/>
     <mergeCell ref="N3:T3"/>
   </mergeCells>
-  <pageMargins left="0.19685039370078999" right="0.19" top="0.31496062992126" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageMargins left="0.19685039370079" right="0.19" top="0.31496062992126" bottom="0.74803149606299" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
@@ -5578,14 +5578,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="3" customWidth="1"/>
-    <col min="3" max="27" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="80" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="9.6640625" style="3" customWidth="true"/>
+    <col min="3" max="27" width="9.109375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="10.33203125" bestFit="true" customWidth="true"/>
     <col min="52" max="52" width="9.109375" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" ht="20.1" customHeight="true">
       <c r="A1" s="107" t="s">
         <v>32</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="IU1" s="107"/>
       <c r="IV1" s="107"/>
     </row>
-    <row r="2" spans="1:256" s="55" customFormat="1">
+    <row r="2" s="55" customFormat="true">
       <c r="A2" s="24" t="s">
         <v>69</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:256" s="52" customFormat="1">
+    <row r="3" s="52" customFormat="true">
       <c r="A3" s="80">
         <v>0</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:256">
+    <row r="4">
       <c r="A4" s="80">
         <v>1</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>0.89695192324410611</v>
       </c>
     </row>
-    <row r="5" spans="1:256">
+    <row r="5">
       <c r="A5" s="80">
         <f>A4+1</f>
         <v>2</v>
@@ -6578,7 +6578,7 @@
         <v>0.87018571255634025</v>
       </c>
     </row>
-    <row r="6" spans="1:256">
+    <row r="6">
       <c r="A6" s="80">
         <f t="shared" ref="A6:A69" si="3">A5+1</f>
         <v>3</v>
@@ -6787,7 +6787,7 @@
         <v>0.84629551063873676</v>
       </c>
     </row>
-    <row r="7" spans="1:256">
+    <row r="7">
       <c r="A7" s="80">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -6996,7 +6996,7 @@
         <v>0.82445642806579367</v>
       </c>
     </row>
-    <row r="8" spans="1:256">
+    <row r="8">
       <c r="A8" s="80">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -7205,7 +7205,7 @@
         <v>0.80422263750866019</v>
       </c>
     </row>
-    <row r="9" spans="1:256">
+    <row r="9">
       <c r="A9" s="80">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7414,7 +7414,7 @@
         <v>0.78531313248338608</v>
       </c>
     </row>
-    <row r="10" spans="1:256">
+    <row r="10">
       <c r="A10" s="80">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -7623,7 +7623,7 @@
         <v>0.76753310411070741</v>
       </c>
     </row>
-    <row r="11" spans="1:256">
+    <row r="11">
       <c r="A11" s="80">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -7832,7 +7832,7 @@
         <v>0.75073850127167796</v>
       </c>
     </row>
-    <row r="12" spans="1:256">
+    <row r="12">
       <c r="A12" s="80">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -8041,7 +8041,7 @@
         <v>0.73481776731189774</v>
       </c>
     </row>
-    <row r="13" spans="1:256">
+    <row r="13">
       <c r="A13" s="80">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8250,7 +8250,7 @@
         <v>0.71968148502792184</v>
       </c>
     </row>
-    <row r="14" spans="1:256">
+    <row r="14">
       <c r="A14" s="80">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -8459,7 +8459,7 @@
         <v>0.70525606632121929</v>
       </c>
     </row>
-    <row r="15" spans="1:256">
+    <row r="15">
       <c r="A15" s="80">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -8668,7 +8668,7 @@
         <v>0.69147968248291725</v>
       </c>
     </row>
-    <row r="16" spans="1:256">
+    <row r="16">
       <c r="A16" s="80">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -8877,7 +8877,7 @@
         <v>0.67829951653884102</v>
       </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17">
       <c r="A17" s="80">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -9086,7 +9086,7 @@
         <v>0.66566983669222213</v>
       </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18">
       <c r="A18" s="80">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -9295,7 +9295,7 @@
         <v>0.65355060191796732</v>
       </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19">
       <c r="A19" s="80">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -9504,7 +9504,7 @@
         <v>0.64190642508943729</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20">
       <c r="A20" s="80">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -9713,7 +9713,7 @@
         <v>0.63070578385177745</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21">
       <c r="A21" s="80">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -9922,7 +9922,7 @@
         <v>0.61992040782875424</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22">
       <c r="A22" s="80">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -10131,7 +10131,7 @@
         <v>0.60952479431466833</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23">
       <c r="A23" s="80">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -10340,7 +10340,7 @@
         <v>0.59949581954633846</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24">
       <c r="A24" s="80">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -10549,7 +10549,7 @@
         <v>0.58981242239837206</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25">
       <c r="A25" s="80">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -10758,7 +10758,7 @@
         <v>0.58045534386588959</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26">
       <c r="A26" s="80">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -10967,7 +10967,7 @@
         <v>0.57140691016010958</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27">
       <c r="A27" s="80">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -11176,7 +11176,7 @@
         <v>0.56265085035673512</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28">
       <c r="A28" s="80">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -11385,7 +11385,7 @@
         <v>0.55417214175163687</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29">
       <c r="A29" s="80">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -11594,7 +11594,7 @@
         <v>0.54595687767947287</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30">
       <c r="A30" s="80">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -11803,7 +11803,7 @@
         <v>0.53799215372631093</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31">
       <c r="A31" s="80">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -12012,7 +12012,7 @@
         <v>0.53026596914239565</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32">
       <c r="A32" s="80">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -12221,7 +12221,7 @@
         <v>0.52276714092111976</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33">
       <c r="A33" s="80">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -12430,7 +12430,7 @@
         <v>0.51548522851390399</v>
       </c>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34">
       <c r="A34" s="80">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -12639,7 +12639,7 @@
         <v>0.50841046753931596</v>
       </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35">
       <c r="A35" s="80">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -12848,7 +12848,7 @@
         <v>0.5015337111477397</v>
       </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36">
       <c r="A36" s="80">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -13057,7 +13057,7 @@
         <v>0.49484637794137742</v>
       </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37">
       <c r="A37" s="80">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -13266,7 +13266,7 @@
         <v>0.48834040553873787</v>
       </c>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38">
       <c r="A38" s="80">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -13475,7 +13475,7 @@
         <v>0.48200820902440999</v>
       </c>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39">
       <c r="A39" s="80">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -13684,7 +13684,7 @@
         <v>0.4758426436472955</v>
       </c>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40">
       <c r="A40" s="80">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -13893,7 +13893,7 @@
         <v>0.46983697122996571</v>
       </c>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41">
       <c r="A41" s="80">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -14102,7 +14102,7 @@
         <v>0.46398482983322931</v>
       </c>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42">
       <c r="A42" s="80">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -14311,7 +14311,7 @@
         <v>0.45828020628708993</v>
       </c>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43">
       <c r="A43" s="80">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -14520,7 +14520,7 @@
         <v>0.45271741125486509</v>
       </c>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44">
       <c r="A44" s="80">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -14729,7 +14729,7 @@
         <v>0.44729105654358564</v>
       </c>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45">
       <c r="A45" s="80">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -14938,7 +14938,7 @@
         <v>0.44199603441263408</v>
       </c>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46">
       <c r="A46" s="80">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -15147,7 +15147,7 @@
         <v>0.43682749866529708</v>
       </c>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47">
       <c r="A47" s="80">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -15356,7 +15356,7 @@
         <v>0.43178084733559291</v>
       </c>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48">
       <c r="A48" s="80">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -15565,7 +15565,7 @@
         <v>0.42685170680628148</v>
       </c>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49">
       <c r="A49" s="80">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -15774,7 +15774,7 @@
         <v>0.42203591721406519</v>
       </c>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50">
       <c r="A50" s="80">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -15983,7 +15983,7 @@
         <v>0.41732951901522114</v>
       </c>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51">
       <c r="A51" s="80">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -16192,7 +16192,7 @@
         <v>0.41272874059974574</v>
       </c>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52">
       <c r="A52" s="80">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -16401,7 +16401,7 @@
         <v>0.40822998685489836</v>
       </c>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53">
       <c r="A53" s="80">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -16610,7 +16610,7 @@
         <v>0.40382982859014716</v>
       </c>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54">
       <c r="A54" s="80">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -16819,7 +16819,7 @@
         <v>0.39952499274517511</v>
       </c>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55">
       <c r="A55" s="80">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -17028,7 +17028,7 @@
         <v>0.39531235331103515</v>
       </c>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56">
       <c r="A56" s="80">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -17237,7 +17237,7 @@
         <v>0.39118892290191981</v>
       </c>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57">
       <c r="A57" s="80">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -17446,7 +17446,7 @@
         <v>0.38715184492148302</v>
       </c>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58">
       <c r="A58" s="80">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -17655,7 +17655,7 @@
         <v>0.3831983862733474</v>
       </c>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59">
       <c r="A59" s="80">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -17864,7 +17864,7 @@
         <v>0.37932593057045705</v>
       </c>
     </row>
-    <row r="60" spans="1:52">
+    <row r="60">
       <c r="A60" s="80">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -18073,7 +18073,7 @@
         <v>0.37553197180237941</v>
       </c>
     </row>
-    <row r="61" spans="1:52">
+    <row r="61">
       <c r="A61" s="80">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -18282,7 +18282,7 @@
         <v>0.37181410842360219</v>
       </c>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62">
       <c r="A62" s="80">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -18491,7 +18491,7 @@
         <v>0.36817003782937135</v>
       </c>
     </row>
-    <row r="63" spans="1:52">
+    <row r="63">
       <c r="A63" s="80">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -18700,7 +18700,7 @@
         <v>0.36459755118873494</v>
       </c>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64">
       <c r="A64" s="80">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -18909,7 +18909,7 @@
         <v>0.36109452860724189</v>
       </c>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65">
       <c r="A65" s="80">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -19118,7 +19118,7 @@
         <v>0.35765893459423009</v>
       </c>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66">
       <c r="A66" s="80">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -19327,7 +19327,7 @@
         <v>0.35428881381187033</v>
       </c>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67">
       <c r="A67" s="80">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -19536,7 +19536,7 @@
         <v>0.35098228708513207</v>
       </c>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68">
       <c r="A68" s="80">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -19745,7 +19745,7 @@
         <v>0.3477375476536349</v>
       </c>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69">
       <c r="A69" s="80">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -19954,7 +19954,7 @@
         <v>0.34455285764797311</v>
       </c>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70">
       <c r="A70" s="80">
         <f t="shared" ref="A70:A103" si="22">A69+1</f>
         <v>67</v>
@@ -20163,7 +20163,7 @@
         <v>0.34142654477455808</v>
       </c>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71">
       <c r="A71" s="80">
         <f t="shared" si="22"/>
         <v>68</v>
@@ -20372,7 +20372,7 @@
         <v>0.33835699919434897</v>
       </c>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72">
       <c r="A72" s="80">
         <f t="shared" si="22"/>
         <v>69</v>
@@ -20581,7 +20581,7 @@
         <v>0.33534267058203321</v>
       </c>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73">
       <c r="A73" s="80">
         <f t="shared" si="22"/>
         <v>70</v>
@@ -20790,7 +20790,7 @@
         <v>0.33238206535330334</v>
       </c>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74">
       <c r="A74" s="80">
         <f t="shared" si="22"/>
         <v>71</v>
@@ -20999,7 +20999,7 @@
         <v>0.32947374404886082</v>
       </c>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75">
       <c r="A75" s="80">
         <f t="shared" si="22"/>
         <v>72</v>
@@ -21208,7 +21208,7 @@
         <v>0.32661631886466974</v>
       </c>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76">
       <c r="A76" s="80">
         <f t="shared" si="22"/>
         <v>73</v>
@@ -21417,7 +21417,7 @@
         <v>0.32380845131879504</v>
       </c>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77">
       <c r="A77" s="80">
         <f t="shared" si="22"/>
         <v>74</v>
@@ -21626,7 +21626,7 @@
         <v>0.32104885004590483</v>
       </c>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78">
       <c r="A78" s="80">
         <f t="shared" si="22"/>
         <v>75</v>
@@ -21835,7 +21835,7 @@
         <v>0.31833626871118842</v>
       </c>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79">
       <c r="A79" s="80">
         <f t="shared" si="22"/>
         <v>76</v>
@@ -22044,7 +22044,7 @@
         <v>0.31566950403605964</v>
       </c>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80">
       <c r="A80" s="80">
         <f t="shared" si="22"/>
         <v>77</v>
@@ -22253,7 +22253,7 @@
         <v>0.31304739392858366</v>
       </c>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81">
       <c r="A81" s="80">
         <f t="shared" si="22"/>
         <v>78</v>
@@ -22462,7 +22462,7 @@
         <v>0.31046881571207507</v>
       </c>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82">
       <c r="A82" s="80">
         <f t="shared" si="22"/>
         <v>79</v>
@@ -22671,7 +22671,7 @@
         <v>0.3079326844457963</v>
       </c>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83">
       <c r="A83" s="80">
         <f t="shared" si="22"/>
         <v>80</v>
@@ -22880,7 +22880,7 @@
         <v>0.30543795133211471</v>
       </c>
     </row>
-    <row r="84" spans="1:52">
+    <row r="84">
       <c r="A84" s="80">
         <f t="shared" si="22"/>
         <v>81</v>
@@ -23089,7 +23089,7 @@
         <v>0.30298360220487908</v>
       </c>
     </row>
-    <row r="85" spans="1:52">
+    <row r="85">
       <c r="A85" s="80">
         <f t="shared" si="22"/>
         <v>82</v>
@@ -23298,7 +23298,7 @@
         <v>0.30056865609414096</v>
       </c>
     </row>
-    <row r="86" spans="1:52">
+    <row r="86">
       <c r="A86" s="80">
         <f t="shared" si="22"/>
         <v>83</v>
@@ -23507,7 +23507,7 @@
         <v>0.29819216386268604</v>
       </c>
     </row>
-    <row r="87" spans="1:52">
+    <row r="87">
       <c r="A87" s="80">
         <f t="shared" si="22"/>
         <v>84</v>
@@ -23716,7 +23716,7 @@
         <v>0.29585320691014999</v>
       </c>
     </row>
-    <row r="88" spans="1:52">
+    <row r="88">
       <c r="A88" s="80">
         <f t="shared" si="22"/>
         <v>85</v>
@@ -23925,7 +23925,7 @@
         <v>0.29355089594078115</v>
       </c>
     </row>
-    <row r="89" spans="1:52">
+    <row r="89">
       <c r="A89" s="80">
         <f t="shared" si="22"/>
         <v>86</v>
@@ -24134,7 +24134,7 @@
         <v>0.29128436979117783</v>
       </c>
     </row>
-    <row r="90" spans="1:52">
+    <row r="90">
       <c r="A90" s="80">
         <f t="shared" si="22"/>
         <v>87</v>
@@ -24343,7 +24343,7 @@
         <v>0.28905279431456948</v>
       </c>
     </row>
-    <row r="91" spans="1:52">
+    <row r="91">
       <c r="A91" s="80">
         <f t="shared" si="22"/>
         <v>88</v>
@@ -24552,7 +24552,7 @@
         <v>0.28685536131844031</v>
       </c>
     </row>
-    <row r="92" spans="1:52">
+    <row r="92">
       <c r="A92" s="80">
         <f t="shared" si="22"/>
         <v>89</v>
@@ -24761,7 +24761,7 @@
         <v>0.28469128755250095</v>
       </c>
     </row>
-    <row r="93" spans="1:52">
+    <row r="93">
       <c r="A93" s="80">
         <f t="shared" si="22"/>
         <v>90</v>
@@ -24970,7 +24970,7 @@
         <v>0.28255981374420847</v>
       </c>
     </row>
-    <row r="94" spans="1:52">
+    <row r="94">
       <c r="A94" s="80">
         <f t="shared" si="22"/>
         <v>91</v>
@@ -25179,7 +25179,7 @@
         <v>0.28046020367921182</v>
       </c>
     </row>
-    <row r="95" spans="1:52">
+    <row r="95">
       <c r="A95" s="80">
         <f t="shared" si="22"/>
         <v>92</v>
@@ -25388,7 +25388,7 @@
         <v>0.27839174332427152</v>
       </c>
     </row>
-    <row r="96" spans="1:52">
+    <row r="96">
       <c r="A96" s="80">
         <f t="shared" si="22"/>
         <v>93</v>
@@ -25597,7 +25597,7 @@
         <v>0.27635373999034968</v>
       </c>
     </row>
-    <row r="97" spans="1:52">
+    <row r="97">
       <c r="A97" s="80">
         <f t="shared" si="22"/>
         <v>94</v>
@@ -25806,7 +25806,7 @@
         <v>0.27434552153371461</v>
       </c>
     </row>
-    <row r="98" spans="1:52">
+    <row r="98">
       <c r="A98" s="80">
         <f t="shared" si="22"/>
         <v>95</v>
@@ -26015,7 +26015,7 @@
         <v>0.27236643559303747</v>
       </c>
     </row>
-    <row r="99" spans="1:52">
+    <row r="99">
       <c r="A99" s="80">
         <f t="shared" si="22"/>
         <v>96</v>
@@ -26224,7 +26224,7 @@
         <v>0.27041584886057934</v>
       </c>
     </row>
-    <row r="100" spans="1:52">
+    <row r="100">
       <c r="A100" s="80">
         <f t="shared" si="22"/>
         <v>97</v>
@@ -26433,7 +26433,7 @@
         <v>0.26849314638568411</v>
       </c>
     </row>
-    <row r="101" spans="1:52">
+    <row r="101">
       <c r="A101" s="80">
         <f t="shared" si="22"/>
         <v>98</v>
@@ -26642,7 +26642,7 @@
         <v>0.26659773090890115</v>
       </c>
     </row>
-    <row r="102" spans="1:52">
+    <row r="102">
       <c r="A102" s="80">
         <f t="shared" si="22"/>
         <v>99</v>
@@ -26851,7 +26851,7 @@
         <v>0.26472902222515887</v>
       </c>
     </row>
-    <row r="103" spans="1:52">
+    <row r="103">
       <c r="A103" s="80">
         <f t="shared" si="22"/>
         <v>100</v>
@@ -27060,7 +27060,7 @@
         <v>0.26288645657450682</v>
       </c>
     </row>
-    <row r="104" spans="1:52">
+    <row r="104">
       <c r="C104" s="49"/>
       <c r="D104" s="49"/>
       <c r="E104" s="49"/>
@@ -27112,7 +27112,7 @@
       <c r="AY104" s="49"/>
       <c r="AZ104" s="70"/>
     </row>
-    <row r="105" spans="1:52">
+    <row r="105">
       <c r="C105" s="49"/>
       <c r="D105" s="49"/>
       <c r="E105" s="49"/>
@@ -27164,7 +27164,7 @@
       <c r="AY105" s="49"/>
       <c r="AZ105" s="70"/>
     </row>
-    <row r="106" spans="1:52">
+    <row r="106">
       <c r="C106" s="49"/>
       <c r="D106" s="49"/>
       <c r="E106" s="49"/>
@@ -27216,7 +27216,7 @@
       <c r="AY106" s="49"/>
       <c r="AZ106" s="70"/>
     </row>
-    <row r="107" spans="1:52">
+    <row r="107">
       <c r="C107" s="49"/>
       <c r="D107" s="49"/>
       <c r="E107" s="49"/>
@@ -27268,7 +27268,7 @@
       <c r="AY107" s="49"/>
       <c r="AZ107" s="70"/>
     </row>
-    <row r="108" spans="1:52">
+    <row r="108">
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
       <c r="E108" s="49"/>
@@ -27320,7 +27320,7 @@
       <c r="AY108" s="49"/>
       <c r="AZ108" s="70"/>
     </row>
-    <row r="109" spans="1:52">
+    <row r="109">
       <c r="C109" s="49"/>
       <c r="D109" s="49"/>
       <c r="E109" s="49"/>
@@ -27372,7 +27372,7 @@
       <c r="AY109" s="49"/>
       <c r="AZ109" s="70"/>
     </row>
-    <row r="110" spans="1:52">
+    <row r="110">
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
       <c r="E110" s="49"/>
@@ -27424,7 +27424,7 @@
       <c r="AY110" s="49"/>
       <c r="AZ110" s="70"/>
     </row>
-    <row r="111" spans="1:52">
+    <row r="111">
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
       <c r="E111" s="49"/>
@@ -27476,7 +27476,7 @@
       <c r="AY111" s="49"/>
       <c r="AZ111" s="70"/>
     </row>
-    <row r="112" spans="1:52">
+    <row r="112">
       <c r="C112" s="49"/>
       <c r="D112" s="49"/>
       <c r="E112" s="49"/>
@@ -27528,7 +27528,7 @@
       <c r="AY112" s="49"/>
       <c r="AZ112" s="70"/>
     </row>
-    <row r="113" spans="3:52">
+    <row r="113">
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
       <c r="E113" s="49"/>
@@ -27580,7 +27580,7 @@
       <c r="AY113" s="49"/>
       <c r="AZ113" s="70"/>
     </row>
-    <row r="114" spans="3:52">
+    <row r="114">
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
       <c r="E114" s="49"/>
@@ -27632,7 +27632,7 @@
       <c r="AY114" s="49"/>
       <c r="AZ114" s="70"/>
     </row>
-    <row r="115" spans="3:52">
+    <row r="115">
       <c r="C115" s="49"/>
       <c r="D115" s="49"/>
       <c r="E115" s="49"/>
@@ -27684,7 +27684,7 @@
       <c r="AY115" s="49"/>
       <c r="AZ115" s="70"/>
     </row>
-    <row r="116" spans="3:52">
+    <row r="116">
       <c r="C116" s="49"/>
       <c r="D116" s="49"/>
       <c r="E116" s="49"/>
@@ -27736,7 +27736,7 @@
       <c r="AY116" s="49"/>
       <c r="AZ116" s="70"/>
     </row>
-    <row r="117" spans="3:52">
+    <row r="117">
       <c r="C117" s="49"/>
       <c r="D117" s="49"/>
       <c r="E117" s="49"/>
@@ -27788,7 +27788,7 @@
       <c r="AY117" s="49"/>
       <c r="AZ117" s="70"/>
     </row>
-    <row r="118" spans="3:52">
+    <row r="118">
       <c r="C118" s="49"/>
       <c r="D118" s="49"/>
       <c r="E118" s="49"/>
@@ -27840,7 +27840,7 @@
       <c r="AY118" s="49"/>
       <c r="AZ118" s="70"/>
     </row>
-    <row r="119" spans="3:52">
+    <row r="119">
       <c r="C119" s="49"/>
       <c r="D119" s="49"/>
       <c r="E119" s="49"/>
@@ -27892,7 +27892,7 @@
       <c r="AY119" s="49"/>
       <c r="AZ119" s="70"/>
     </row>
-    <row r="120" spans="3:52">
+    <row r="120">
       <c r="C120" s="49"/>
       <c r="D120" s="49"/>
       <c r="E120" s="49"/>
@@ -27944,7 +27944,7 @@
       <c r="AY120" s="49"/>
       <c r="AZ120" s="70"/>
     </row>
-    <row r="121" spans="3:52">
+    <row r="121">
       <c r="C121" s="49"/>
       <c r="D121" s="49"/>
       <c r="E121" s="49"/>
@@ -27996,7 +27996,7 @@
       <c r="AY121" s="49"/>
       <c r="AZ121" s="70"/>
     </row>
-    <row r="122" spans="3:52">
+    <row r="122">
       <c r="C122" s="49"/>
       <c r="D122" s="49"/>
       <c r="E122" s="49"/>
@@ -28048,7 +28048,7 @@
       <c r="AY122" s="49"/>
       <c r="AZ122" s="70"/>
     </row>
-    <row r="123" spans="3:52">
+    <row r="123">
       <c r="C123" s="49"/>
       <c r="D123" s="49"/>
       <c r="E123" s="49"/>
@@ -28100,7 +28100,7 @@
       <c r="AY123" s="49"/>
       <c r="AZ123" s="70"/>
     </row>
-    <row r="124" spans="3:52">
+    <row r="124">
       <c r="C124" s="49"/>
       <c r="D124" s="49"/>
       <c r="E124" s="49"/>
@@ -28152,7 +28152,7 @@
       <c r="AY124" s="49"/>
       <c r="AZ124" s="70"/>
     </row>
-    <row r="125" spans="3:52">
+    <row r="125">
       <c r="C125" s="49"/>
       <c r="D125" s="49"/>
       <c r="E125" s="49"/>
@@ -28204,7 +28204,7 @@
       <c r="AY125" s="49"/>
       <c r="AZ125" s="70"/>
     </row>
-    <row r="126" spans="3:52">
+    <row r="126">
       <c r="C126" s="49"/>
       <c r="D126" s="49"/>
       <c r="E126" s="49"/>
@@ -28256,7 +28256,7 @@
       <c r="AY126" s="49"/>
       <c r="AZ126" s="70"/>
     </row>
-    <row r="127" spans="3:52">
+    <row r="127">
       <c r="C127" s="49"/>
       <c r="D127" s="49"/>
       <c r="E127" s="49"/>
@@ -28308,7 +28308,7 @@
       <c r="AY127" s="49"/>
       <c r="AZ127" s="70"/>
     </row>
-    <row r="128" spans="3:52">
+    <row r="128">
       <c r="C128" s="49"/>
       <c r="D128" s="49"/>
       <c r="E128" s="49"/>
@@ -28360,7 +28360,7 @@
       <c r="AY128" s="49"/>
       <c r="AZ128" s="70"/>
     </row>
-    <row r="129" spans="3:52">
+    <row r="129">
       <c r="C129" s="49"/>
       <c r="D129" s="49"/>
       <c r="E129" s="49"/>
@@ -28412,7 +28412,7 @@
       <c r="AY129" s="49"/>
       <c r="AZ129" s="70"/>
     </row>
-    <row r="130" spans="3:52">
+    <row r="130">
       <c r="C130" s="49"/>
       <c r="D130" s="49"/>
       <c r="E130" s="49"/>
@@ -28464,7 +28464,7 @@
       <c r="AY130" s="49"/>
       <c r="AZ130" s="70"/>
     </row>
-    <row r="131" spans="3:52">
+    <row r="131">
       <c r="C131" s="49"/>
       <c r="D131" s="49"/>
       <c r="E131" s="49"/>
@@ -28516,7 +28516,7 @@
       <c r="AY131" s="49"/>
       <c r="AZ131" s="70"/>
     </row>
-    <row r="132" spans="3:52">
+    <row r="132">
       <c r="C132" s="49"/>
       <c r="D132" s="49"/>
       <c r="E132" s="49"/>
@@ -28568,7 +28568,7 @@
       <c r="AY132" s="49"/>
       <c r="AZ132" s="70"/>
     </row>
-    <row r="133" spans="3:52">
+    <row r="133">
       <c r="C133" s="49"/>
       <c r="D133" s="49"/>
       <c r="E133" s="49"/>
@@ -28620,7 +28620,7 @@
       <c r="AY133" s="49"/>
       <c r="AZ133" s="70"/>
     </row>
-    <row r="134" spans="3:52">
+    <row r="134">
       <c r="C134" s="49"/>
       <c r="D134" s="49"/>
       <c r="E134" s="49"/>
@@ -28672,7 +28672,7 @@
       <c r="AY134" s="49"/>
       <c r="AZ134" s="70"/>
     </row>
-    <row r="135" spans="3:52">
+    <row r="135">
       <c r="C135" s="49"/>
       <c r="D135" s="49"/>
       <c r="E135" s="49"/>
@@ -28724,7 +28724,7 @@
       <c r="AY135" s="49"/>
       <c r="AZ135" s="70"/>
     </row>
-    <row r="136" spans="3:52">
+    <row r="136">
       <c r="C136" s="49"/>
       <c r="D136" s="49"/>
       <c r="E136" s="49"/>
@@ -28776,7 +28776,7 @@
       <c r="AY136" s="49"/>
       <c r="AZ136" s="70"/>
     </row>
-    <row r="137" spans="3:52">
+    <row r="137">
       <c r="C137" s="49"/>
       <c r="D137" s="49"/>
       <c r="E137" s="49"/>
@@ -28828,7 +28828,7 @@
       <c r="AY137" s="49"/>
       <c r="AZ137" s="70"/>
     </row>
-    <row r="138" spans="3:52">
+    <row r="138">
       <c r="C138" s="49"/>
       <c r="D138" s="49"/>
       <c r="E138" s="49"/>
@@ -28880,7 +28880,7 @@
       <c r="AY138" s="49"/>
       <c r="AZ138" s="70"/>
     </row>
-    <row r="139" spans="3:52">
+    <row r="139">
       <c r="C139" s="49"/>
       <c r="D139" s="49"/>
       <c r="E139" s="49"/>
@@ -28932,7 +28932,7 @@
       <c r="AY139" s="49"/>
       <c r="AZ139" s="70"/>
     </row>
-    <row r="140" spans="3:52">
+    <row r="140">
       <c r="C140" s="49"/>
       <c r="D140" s="49"/>
       <c r="E140" s="49"/>
@@ -28984,7 +28984,7 @@
       <c r="AY140" s="49"/>
       <c r="AZ140" s="70"/>
     </row>
-    <row r="141" spans="3:52">
+    <row r="141">
       <c r="C141" s="49"/>
       <c r="D141" s="49"/>
       <c r="E141" s="49"/>
@@ -29036,7 +29036,7 @@
       <c r="AY141" s="49"/>
       <c r="AZ141" s="70"/>
     </row>
-    <row r="142" spans="3:52">
+    <row r="142">
       <c r="C142" s="49"/>
       <c r="D142" s="49"/>
       <c r="E142" s="49"/>
@@ -29088,7 +29088,7 @@
       <c r="AY142" s="49"/>
       <c r="AZ142" s="70"/>
     </row>
-    <row r="143" spans="3:52">
+    <row r="143">
       <c r="C143" s="49"/>
       <c r="D143" s="49"/>
       <c r="E143" s="49"/>
@@ -29140,7 +29140,7 @@
       <c r="AY143" s="49"/>
       <c r="AZ143" s="70"/>
     </row>
-    <row r="144" spans="3:52">
+    <row r="144">
       <c r="C144" s="49"/>
       <c r="D144" s="49"/>
       <c r="E144" s="49"/>
@@ -29192,7 +29192,7 @@
       <c r="AY144" s="49"/>
       <c r="AZ144" s="70"/>
     </row>
-    <row r="145" spans="3:52">
+    <row r="145">
       <c r="C145" s="49"/>
       <c r="D145" s="49"/>
       <c r="E145" s="49"/>
@@ -29244,7 +29244,7 @@
       <c r="AY145" s="49"/>
       <c r="AZ145" s="70"/>
     </row>
-    <row r="146" spans="3:52">
+    <row r="146">
       <c r="C146" s="49"/>
       <c r="D146" s="49"/>
       <c r="E146" s="49"/>
@@ -29296,7 +29296,7 @@
       <c r="AY146" s="49"/>
       <c r="AZ146" s="70"/>
     </row>
-    <row r="147" spans="3:52">
+    <row r="147">
       <c r="C147" s="49"/>
       <c r="D147" s="49"/>
       <c r="E147" s="49"/>
@@ -29348,7 +29348,7 @@
       <c r="AY147" s="49"/>
       <c r="AZ147" s="70"/>
     </row>
-    <row r="148" spans="3:52">
+    <row r="148">
       <c r="C148" s="49"/>
       <c r="D148" s="49"/>
       <c r="E148" s="49"/>
@@ -29400,7 +29400,7 @@
       <c r="AY148" s="49"/>
       <c r="AZ148" s="70"/>
     </row>
-    <row r="149" spans="3:52">
+    <row r="149">
       <c r="C149" s="49"/>
       <c r="D149" s="49"/>
       <c r="E149" s="49"/>
@@ -29452,7 +29452,7 @@
       <c r="AY149" s="49"/>
       <c r="AZ149" s="70"/>
     </row>
-    <row r="150" spans="3:52">
+    <row r="150">
       <c r="C150" s="49"/>
       <c r="D150" s="49"/>
       <c r="E150" s="49"/>
@@ -29504,7 +29504,7 @@
       <c r="AY150" s="49"/>
       <c r="AZ150" s="70"/>
     </row>
-    <row r="151" spans="3:52">
+    <row r="151">
       <c r="C151" s="49"/>
       <c r="D151" s="49"/>
       <c r="E151" s="49"/>
@@ -29556,7 +29556,7 @@
       <c r="AY151" s="49"/>
       <c r="AZ151" s="70"/>
     </row>
-    <row r="152" spans="3:52">
+    <row r="152">
       <c r="C152" s="49"/>
       <c r="D152" s="49"/>
       <c r="E152" s="49"/>
@@ -29608,7 +29608,7 @@
       <c r="AY152" s="49"/>
       <c r="AZ152" s="70"/>
     </row>
-    <row r="153" spans="3:52">
+    <row r="153">
       <c r="C153" s="49"/>
       <c r="D153" s="49"/>
       <c r="E153" s="49"/>
@@ -29660,7 +29660,7 @@
       <c r="AY153" s="49"/>
       <c r="AZ153" s="70"/>
     </row>
-    <row r="154" spans="3:52">
+    <row r="154">
       <c r="C154" s="49"/>
       <c r="D154" s="49"/>
       <c r="E154" s="49"/>
@@ -29712,7 +29712,7 @@
       <c r="AY154" s="49"/>
       <c r="AZ154" s="70"/>
     </row>
-    <row r="155" spans="3:52">
+    <row r="155">
       <c r="C155" s="49"/>
       <c r="D155" s="49"/>
       <c r="E155" s="49"/>
@@ -29764,7 +29764,7 @@
       <c r="AY155" s="49"/>
       <c r="AZ155" s="70"/>
     </row>
-    <row r="156" spans="3:52">
+    <row r="156">
       <c r="C156" s="49"/>
       <c r="D156" s="49"/>
       <c r="E156" s="49"/>
@@ -29816,7 +29816,7 @@
       <c r="AY156" s="49"/>
       <c r="AZ156" s="70"/>
     </row>
-    <row r="157" spans="3:52">
+    <row r="157">
       <c r="C157" s="49"/>
       <c r="D157" s="49"/>
       <c r="E157" s="49"/>
@@ -29868,7 +29868,7 @@
       <c r="AY157" s="49"/>
       <c r="AZ157" s="70"/>
     </row>
-    <row r="158" spans="3:52">
+    <row r="158">
       <c r="C158" s="49"/>
       <c r="D158" s="49"/>
       <c r="E158" s="49"/>
@@ -29920,7 +29920,7 @@
       <c r="AY158" s="49"/>
       <c r="AZ158" s="70"/>
     </row>
-    <row r="159" spans="3:52">
+    <row r="159">
       <c r="C159" s="49"/>
       <c r="D159" s="49"/>
       <c r="E159" s="49"/>
@@ -29972,7 +29972,7 @@
       <c r="AY159" s="49"/>
       <c r="AZ159" s="70"/>
     </row>
-    <row r="160" spans="3:52">
+    <row r="160">
       <c r="C160" s="49"/>
       <c r="D160" s="49"/>
       <c r="E160" s="49"/>
@@ -30024,7 +30024,7 @@
       <c r="AY160" s="49"/>
       <c r="AZ160" s="70"/>
     </row>
-    <row r="161" spans="3:52">
+    <row r="161">
       <c r="C161" s="49"/>
       <c r="D161" s="49"/>
       <c r="E161" s="49"/>
@@ -30076,7 +30076,7 @@
       <c r="AY161" s="49"/>
       <c r="AZ161" s="70"/>
     </row>
-    <row r="162" spans="3:52">
+    <row r="162">
       <c r="C162" s="49"/>
       <c r="D162" s="49"/>
       <c r="E162" s="49"/>
@@ -30128,7 +30128,7 @@
       <c r="AY162" s="49"/>
       <c r="AZ162" s="70"/>
     </row>
-    <row r="163" spans="3:52">
+    <row r="163">
       <c r="C163" s="49"/>
       <c r="D163" s="49"/>
       <c r="E163" s="49"/>
@@ -30180,7 +30180,7 @@
       <c r="AY163" s="49"/>
       <c r="AZ163" s="70"/>
     </row>
-    <row r="164" spans="3:52">
+    <row r="164">
       <c r="C164" s="49"/>
       <c r="D164" s="49"/>
       <c r="E164" s="49"/>
@@ -30232,7 +30232,7 @@
       <c r="AY164" s="49"/>
       <c r="AZ164" s="70"/>
     </row>
-    <row r="165" spans="3:52">
+    <row r="165">
       <c r="C165" s="49"/>
       <c r="D165" s="49"/>
       <c r="E165" s="49"/>
@@ -30284,7 +30284,7 @@
       <c r="AY165" s="49"/>
       <c r="AZ165" s="70"/>
     </row>
-    <row r="166" spans="3:52">
+    <row r="166">
       <c r="C166" s="49"/>
       <c r="D166" s="49"/>
       <c r="E166" s="49"/>
@@ -30336,7 +30336,7 @@
       <c r="AY166" s="49"/>
       <c r="AZ166" s="70"/>
     </row>
-    <row r="167" spans="3:52">
+    <row r="167">
       <c r="C167" s="49"/>
       <c r="D167" s="49"/>
       <c r="E167" s="49"/>
@@ -30388,7 +30388,7 @@
       <c r="AY167" s="49"/>
       <c r="AZ167" s="70"/>
     </row>
-    <row r="168" spans="3:52">
+    <row r="168">
       <c r="C168" s="49"/>
       <c r="D168" s="49"/>
       <c r="E168" s="49"/>
@@ -30440,7 +30440,7 @@
       <c r="AY168" s="49"/>
       <c r="AZ168" s="70"/>
     </row>
-    <row r="169" spans="3:52">
+    <row r="169">
       <c r="C169" s="49"/>
       <c r="D169" s="49"/>
       <c r="E169" s="49"/>
@@ -30492,7 +30492,7 @@
       <c r="AY169" s="49"/>
       <c r="AZ169" s="70"/>
     </row>
-    <row r="170" spans="3:52">
+    <row r="170">
       <c r="C170" s="49"/>
       <c r="D170" s="49"/>
       <c r="E170" s="49"/>
@@ -30544,7 +30544,7 @@
       <c r="AY170" s="49"/>
       <c r="AZ170" s="70"/>
     </row>
-    <row r="171" spans="3:52">
+    <row r="171">
       <c r="C171" s="49"/>
       <c r="D171" s="49"/>
       <c r="E171" s="49"/>
@@ -30596,7 +30596,7 @@
       <c r="AY171" s="49"/>
       <c r="AZ171" s="70"/>
     </row>
-    <row r="172" spans="3:52">
+    <row r="172">
       <c r="C172" s="49"/>
       <c r="D172" s="49"/>
       <c r="E172" s="49"/>
@@ -30648,7 +30648,7 @@
       <c r="AY172" s="49"/>
       <c r="AZ172" s="70"/>
     </row>
-    <row r="173" spans="3:52">
+    <row r="173">
       <c r="C173" s="49"/>
       <c r="D173" s="49"/>
       <c r="E173" s="49"/>
@@ -30700,7 +30700,7 @@
       <c r="AY173" s="49"/>
       <c r="AZ173" s="70"/>
     </row>
-    <row r="174" spans="3:52">
+    <row r="174">
       <c r="C174" s="49"/>
       <c r="D174" s="49"/>
       <c r="E174" s="49"/>
@@ -30752,7 +30752,7 @@
       <c r="AY174" s="49"/>
       <c r="AZ174" s="70"/>
     </row>
-    <row r="175" spans="3:52">
+    <row r="175">
       <c r="C175" s="49"/>
       <c r="D175" s="49"/>
       <c r="E175" s="49"/>
@@ -30804,7 +30804,7 @@
       <c r="AY175" s="49"/>
       <c r="AZ175" s="70"/>
     </row>
-    <row r="176" spans="3:52">
+    <row r="176">
       <c r="C176" s="49"/>
       <c r="D176" s="49"/>
       <c r="E176" s="49"/>
@@ -30856,7 +30856,7 @@
       <c r="AY176" s="49"/>
       <c r="AZ176" s="70"/>
     </row>
-    <row r="177" spans="3:52">
+    <row r="177">
       <c r="C177" s="49"/>
       <c r="D177" s="49"/>
       <c r="E177" s="49"/>
@@ -30908,7 +30908,7 @@
       <c r="AY177" s="49"/>
       <c r="AZ177" s="70"/>
     </row>
-    <row r="178" spans="3:52">
+    <row r="178">
       <c r="C178" s="49"/>
       <c r="D178" s="49"/>
       <c r="E178" s="49"/>
@@ -30960,7 +30960,7 @@
       <c r="AY178" s="49"/>
       <c r="AZ178" s="70"/>
     </row>
-    <row r="179" spans="3:52">
+    <row r="179">
       <c r="C179" s="49"/>
       <c r="D179" s="49"/>
       <c r="E179" s="49"/>
@@ -31012,7 +31012,7 @@
       <c r="AY179" s="49"/>
       <c r="AZ179" s="70"/>
     </row>
-    <row r="180" spans="3:52">
+    <row r="180">
       <c r="C180" s="49"/>
       <c r="D180" s="49"/>
       <c r="E180" s="49"/>
@@ -31064,7 +31064,7 @@
       <c r="AY180" s="49"/>
       <c r="AZ180" s="70"/>
     </row>
-    <row r="181" spans="3:52">
+    <row r="181">
       <c r="C181" s="49"/>
       <c r="D181" s="49"/>
       <c r="E181" s="49"/>
@@ -31116,7 +31116,7 @@
       <c r="AY181" s="49"/>
       <c r="AZ181" s="70"/>
     </row>
-    <row r="182" spans="3:52">
+    <row r="182">
       <c r="C182" s="49"/>
       <c r="D182" s="49"/>
       <c r="E182" s="49"/>
@@ -31168,7 +31168,7 @@
       <c r="AY182" s="49"/>
       <c r="AZ182" s="70"/>
     </row>
-    <row r="183" spans="3:52">
+    <row r="183">
       <c r="C183" s="49"/>
       <c r="D183" s="49"/>
       <c r="E183" s="49"/>
@@ -31220,7 +31220,7 @@
       <c r="AY183" s="49"/>
       <c r="AZ183" s="70"/>
     </row>
-    <row r="184" spans="3:52">
+    <row r="184">
       <c r="C184" s="49"/>
       <c r="D184" s="49"/>
       <c r="E184" s="49"/>
@@ -31272,7 +31272,7 @@
       <c r="AY184" s="49"/>
       <c r="AZ184" s="70"/>
     </row>
-    <row r="185" spans="3:52">
+    <row r="185">
       <c r="C185" s="49"/>
       <c r="D185" s="49"/>
       <c r="E185" s="49"/>
@@ -31324,7 +31324,7 @@
       <c r="AY185" s="49"/>
       <c r="AZ185" s="70"/>
     </row>
-    <row r="186" spans="3:52">
+    <row r="186">
       <c r="C186" s="49"/>
       <c r="D186" s="49"/>
       <c r="E186" s="49"/>
@@ -31376,7 +31376,7 @@
       <c r="AY186" s="49"/>
       <c r="AZ186" s="70"/>
     </row>
-    <row r="187" spans="3:52">
+    <row r="187">
       <c r="C187" s="49"/>
       <c r="D187" s="49"/>
       <c r="E187" s="49"/>
@@ -31428,7 +31428,7 @@
       <c r="AY187" s="49"/>
       <c r="AZ187" s="70"/>
     </row>
-    <row r="188" spans="3:52">
+    <row r="188">
       <c r="C188" s="49"/>
       <c r="D188" s="49"/>
       <c r="E188" s="49"/>
@@ -31480,7 +31480,7 @@
       <c r="AY188" s="49"/>
       <c r="AZ188" s="70"/>
     </row>
-    <row r="189" spans="3:52">
+    <row r="189">
       <c r="C189" s="49"/>
       <c r="D189" s="49"/>
       <c r="E189" s="49"/>
@@ -31532,7 +31532,7 @@
       <c r="AY189" s="49"/>
       <c r="AZ189" s="70"/>
     </row>
-    <row r="190" spans="3:52">
+    <row r="190">
       <c r="C190" s="49"/>
       <c r="D190" s="49"/>
       <c r="E190" s="49"/>
@@ -31584,7 +31584,7 @@
       <c r="AY190" s="49"/>
       <c r="AZ190" s="70"/>
     </row>
-    <row r="191" spans="3:52">
+    <row r="191">
       <c r="C191" s="49"/>
       <c r="D191" s="49"/>
       <c r="E191" s="49"/>
@@ -31636,7 +31636,7 @@
       <c r="AY191" s="49"/>
       <c r="AZ191" s="70"/>
     </row>
-    <row r="192" spans="3:52">
+    <row r="192">
       <c r="C192" s="49"/>
       <c r="D192" s="49"/>
       <c r="E192" s="49"/>
@@ -31688,7 +31688,7 @@
       <c r="AY192" s="49"/>
       <c r="AZ192" s="70"/>
     </row>
-    <row r="193" spans="3:52">
+    <row r="193">
       <c r="C193" s="49"/>
       <c r="D193" s="49"/>
       <c r="E193" s="49"/>
@@ -31740,7 +31740,7 @@
       <c r="AY193" s="49"/>
       <c r="AZ193" s="70"/>
     </row>
-    <row r="194" spans="3:52">
+    <row r="194">
       <c r="C194" s="49"/>
       <c r="D194" s="49"/>
       <c r="E194" s="49"/>
@@ -31792,7 +31792,7 @@
       <c r="AY194" s="49"/>
       <c r="AZ194" s="70"/>
     </row>
-    <row r="195" spans="3:52">
+    <row r="195">
       <c r="C195" s="49"/>
       <c r="D195" s="49"/>
       <c r="E195" s="49"/>
@@ -31844,7 +31844,7 @@
       <c r="AY195" s="49"/>
       <c r="AZ195" s="70"/>
     </row>
-    <row r="196" spans="3:52">
+    <row r="196">
       <c r="C196" s="49"/>
       <c r="D196" s="49"/>
       <c r="E196" s="49"/>
@@ -31896,7 +31896,7 @@
       <c r="AY196" s="49"/>
       <c r="AZ196" s="70"/>
     </row>
-    <row r="197" spans="3:52">
+    <row r="197">
       <c r="C197" s="49"/>
       <c r="D197" s="49"/>
       <c r="E197" s="49"/>
@@ -31948,7 +31948,7 @@
       <c r="AY197" s="49"/>
       <c r="AZ197" s="70"/>
     </row>
-    <row r="198" spans="3:52">
+    <row r="198">
       <c r="C198" s="49"/>
       <c r="D198" s="49"/>
       <c r="E198" s="49"/>
@@ -32000,7 +32000,7 @@
       <c r="AY198" s="49"/>
       <c r="AZ198" s="70"/>
     </row>
-    <row r="199" spans="3:52">
+    <row r="199">
       <c r="C199" s="49"/>
       <c r="D199" s="49"/>
       <c r="E199" s="49"/>
@@ -32052,7 +32052,7 @@
       <c r="AY199" s="49"/>
       <c r="AZ199" s="70"/>
     </row>
-    <row r="200" spans="3:52">
+    <row r="200">
       <c r="C200" s="49"/>
       <c r="D200" s="49"/>
       <c r="E200" s="49"/>
@@ -32104,7 +32104,7 @@
       <c r="AY200" s="49"/>
       <c r="AZ200" s="70"/>
     </row>
-    <row r="201" spans="3:52">
+    <row r="201">
       <c r="C201" s="49"/>
       <c r="D201" s="49"/>
       <c r="E201" s="49"/>
@@ -32156,7 +32156,7 @@
       <c r="AY201" s="49"/>
       <c r="AZ201" s="70"/>
     </row>
-    <row r="202" spans="3:52">
+    <row r="202">
       <c r="C202" s="49"/>
       <c r="D202" s="49"/>
       <c r="E202" s="49"/>
@@ -32208,7 +32208,7 @@
       <c r="AY202" s="49"/>
       <c r="AZ202" s="70"/>
     </row>
-    <row r="203" spans="3:52">
+    <row r="203">
       <c r="C203" s="49"/>
       <c r="D203" s="49"/>
       <c r="E203" s="49"/>
@@ -32260,7 +32260,7 @@
       <c r="AY203" s="49"/>
       <c r="AZ203" s="70"/>
     </row>
-    <row r="204" spans="3:52">
+    <row r="204">
       <c r="C204" s="49"/>
       <c r="D204" s="49"/>
       <c r="E204" s="49"/>
@@ -32287,7 +32287,7 @@
       <c r="Z204" s="49"/>
       <c r="AA204" s="49"/>
     </row>
-    <row r="205" spans="3:52">
+    <row r="205">
       <c r="C205" s="49"/>
       <c r="D205" s="49"/>
       <c r="E205" s="49"/>
@@ -32314,7 +32314,7 @@
       <c r="Z205" s="49"/>
       <c r="AA205" s="49"/>
     </row>
-    <row r="206" spans="3:52">
+    <row r="206">
       <c r="C206" s="49"/>
       <c r="D206" s="49"/>
       <c r="E206" s="49"/>
@@ -32341,7 +32341,7 @@
       <c r="Z206" s="49"/>
       <c r="AA206" s="49"/>
     </row>
-    <row r="207" spans="3:52">
+    <row r="207">
       <c r="C207" s="49"/>
       <c r="D207" s="49"/>
       <c r="E207" s="49"/>
@@ -32368,7 +32368,7 @@
       <c r="Z207" s="49"/>
       <c r="AA207" s="49"/>
     </row>
-    <row r="208" spans="3:52">
+    <row r="208">
       <c r="C208" s="49"/>
       <c r="D208" s="49"/>
       <c r="E208" s="49"/>
@@ -32395,7 +32395,7 @@
       <c r="Z208" s="49"/>
       <c r="AA208" s="49"/>
     </row>
-    <row r="209" spans="3:27">
+    <row r="209">
       <c r="C209" s="49"/>
       <c r="D209" s="49"/>
       <c r="E209" s="49"/>
@@ -32422,7 +32422,7 @@
       <c r="Z209" s="49"/>
       <c r="AA209" s="49"/>
     </row>
-    <row r="210" spans="3:27">
+    <row r="210">
       <c r="C210" s="49"/>
       <c r="D210" s="49"/>
       <c r="E210" s="49"/>
@@ -32449,7 +32449,7 @@
       <c r="Z210" s="49"/>
       <c r="AA210" s="49"/>
     </row>
-    <row r="211" spans="3:27">
+    <row r="211">
       <c r="C211" s="49"/>
       <c r="D211" s="49"/>
       <c r="E211" s="49"/>
@@ -32476,7 +32476,7 @@
       <c r="Z211" s="49"/>
       <c r="AA211" s="49"/>
     </row>
-    <row r="212" spans="3:27">
+    <row r="212">
       <c r="C212" s="49"/>
       <c r="D212" s="49"/>
       <c r="E212" s="49"/>
@@ -32503,7 +32503,7 @@
       <c r="Z212" s="49"/>
       <c r="AA212" s="49"/>
     </row>
-    <row r="213" spans="3:27">
+    <row r="213">
       <c r="C213" s="49"/>
       <c r="D213" s="49"/>
       <c r="E213" s="49"/>
@@ -32530,7 +32530,7 @@
       <c r="Z213" s="49"/>
       <c r="AA213" s="49"/>
     </row>
-    <row r="214" spans="3:27">
+    <row r="214">
       <c r="C214" s="49"/>
       <c r="D214" s="49"/>
       <c r="E214" s="49"/>
@@ -32557,7 +32557,7 @@
       <c r="Z214" s="49"/>
       <c r="AA214" s="49"/>
     </row>
-    <row r="215" spans="3:27">
+    <row r="215">
       <c r="C215" s="49"/>
       <c r="D215" s="49"/>
       <c r="E215" s="49"/>
@@ -32584,7 +32584,7 @@
       <c r="Z215" s="49"/>
       <c r="AA215" s="49"/>
     </row>
-    <row r="216" spans="3:27">
+    <row r="216">
       <c r="C216" s="49"/>
       <c r="D216" s="49"/>
       <c r="E216" s="49"/>
@@ -32611,7 +32611,7 @@
       <c r="Z216" s="49"/>
       <c r="AA216" s="49"/>
     </row>
-    <row r="217" spans="3:27">
+    <row r="217">
       <c r="C217" s="49"/>
       <c r="D217" s="49"/>
       <c r="E217" s="49"/>
@@ -32638,7 +32638,7 @@
       <c r="Z217" s="49"/>
       <c r="AA217" s="49"/>
     </row>
-    <row r="218" spans="3:27">
+    <row r="218">
       <c r="C218" s="49"/>
       <c r="D218" s="49"/>
       <c r="E218" s="49"/>
@@ -32665,7 +32665,7 @@
       <c r="Z218" s="49"/>
       <c r="AA218" s="49"/>
     </row>
-    <row r="219" spans="3:27">
+    <row r="219">
       <c r="C219" s="49"/>
       <c r="D219" s="49"/>
       <c r="E219" s="49"/>
@@ -32692,7 +32692,7 @@
       <c r="Z219" s="49"/>
       <c r="AA219" s="49"/>
     </row>
-    <row r="220" spans="3:27">
+    <row r="220">
       <c r="C220" s="49"/>
       <c r="D220" s="49"/>
       <c r="E220" s="49"/>
@@ -32737,20 +32737,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="15.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="11.88671875" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="15.33203125" hidden="true" customWidth="true"/>
+    <col min="7" max="7" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="10.88671875" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="10.44140625" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="21.6640625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="10.109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" ht="20.1" customHeight="true">
       <c r="A1" s="107" t="s">
         <v>32</v>
       </c>
@@ -33009,7 +33009,7 @@
       <c r="IT1" s="107"/>
       <c r="IU1" s="107"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" ht="15" thickBot="true">
       <c r="A2" s="128"/>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
@@ -33022,7 +33022,7 @@
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="true">
       <c r="A3" s="129" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -33063,7 +33063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" ht="15" thickBot="true">
       <c r="A4" s="130"/>
       <c r="B4" s="132"/>
       <c r="C4" s="134"/>
@@ -33076,7 +33076,7 @@
       <c r="J4" s="142"/>
       <c r="K4" s="140"/>
     </row>
-    <row r="5" spans="1:255" s="63" customFormat="1">
+    <row r="5" s="63" customFormat="true">
       <c r="A5" s="71">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -33120,7 +33120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="63" customFormat="1">
+    <row r="6" s="63" customFormat="true">
       <c r="A6" s="64">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -33165,7 +33165,7 @@
       </c>
       <c r="M6" s="81"/>
     </row>
-    <row r="7" spans="1:255" s="63" customFormat="1">
+    <row r="7" s="63" customFormat="true">
       <c r="A7" s="64">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -33210,7 +33210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="63" customFormat="1">
+    <row r="8" s="63" customFormat="true">
       <c r="A8" s="64">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -33255,7 +33255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="63" customFormat="1">
+    <row r="9" s="63" customFormat="true">
       <c r="A9" s="64">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -33299,7 +33299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="63" customFormat="1">
+    <row r="10" s="63" customFormat="true">
       <c r="A10" s="64">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -33344,7 +33344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="63" customFormat="1">
+    <row r="11" s="63" customFormat="true">
       <c r="A11" s="64">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -33389,7 +33389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="63" customFormat="1">
+    <row r="12" s="63" customFormat="true">
       <c r="A12" s="64">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -33433,7 +33433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="63" customFormat="1">
+    <row r="13" s="63" customFormat="true">
       <c r="A13" s="64">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -33477,7 +33477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="63" customFormat="1">
+    <row r="14" s="63" customFormat="true">
       <c r="A14" s="64">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -33522,7 +33522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="63" customFormat="1">
+    <row r="15" s="63" customFormat="true">
       <c r="A15" s="64">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="63" customFormat="1">
+    <row r="16" s="63" customFormat="true">
       <c r="A16" s="64">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -33594,15 +33594,14 @@
         <v>12</v>
       </c>
       <c r="H16" s="74">
-        <f t="shared" si="0"/>
-        <v>42370</v>
+        <v>42711</v>
       </c>
       <c r="I16" s="103">
         <f>(YEAR(H16)-YEAR('Сводная таблица'!$B$2))*53+WEEKNUM(H16)</f>
         <v>1</v>
       </c>
       <c r="J16" s="28">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K16" s="76">
         <f>VLOOKUP(I16,'Формула рейтинга'!$A$3:$AZ$203,J16+2,FALSE)*10</f>
@@ -33612,7 +33611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="63" customFormat="1">
+    <row r="17" s="63" customFormat="true">
       <c r="A17" s="64">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -33656,7 +33655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="63" customFormat="1">
+    <row r="18" s="63" customFormat="true">
       <c r="A18" s="64">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -33700,7 +33699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="63" customFormat="1">
+    <row r="19" s="63" customFormat="true">
       <c r="A19" s="64">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -33744,7 +33743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="63" customFormat="1">
+    <row r="20" s="63" customFormat="true">
       <c r="A20" s="64">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -33788,7 +33787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="63" customFormat="1">
+    <row r="21" s="63" customFormat="true">
       <c r="A21" s="64">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -33833,7 +33832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="63" customFormat="1">
+    <row r="22" s="63" customFormat="true">
       <c r="A22" s="64">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -33877,7 +33876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="63" customFormat="1">
+    <row r="23" s="63" customFormat="true">
       <c r="A23" s="64">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -33922,7 +33921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="63" customFormat="1">
+    <row r="24" s="63" customFormat="true">
       <c r="A24" s="64">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -33967,7 +33966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="63" customFormat="1">
+    <row r="25" s="63" customFormat="true">
       <c r="A25" s="64">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -34012,7 +34011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="63" customFormat="1">
+    <row r="26" s="63" customFormat="true">
       <c r="A26" s="64">
         <f>'Сводная таблица'!A26:A26</f>
         <v>22</v>
@@ -34057,7 +34056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="52" customFormat="1">
+    <row r="27" s="52" customFormat="true">
       <c r="A27" s="62"/>
       <c r="B27" s="62"/>
       <c r="C27" s="62"/>
@@ -34066,7 +34065,7 @@
       <c r="F27" s="62"/>
       <c r="G27" s="62"/>
     </row>
-    <row r="28" spans="1:12" s="52" customFormat="1">
+    <row r="28" s="52" customFormat="true">
       <c r="A28" s="62"/>
       <c r="B28" s="62"/>
       <c r="C28" s="62"/>
@@ -34075,7 +34074,7 @@
       <c r="F28" s="62"/>
       <c r="G28" s="62"/>
     </row>
-    <row r="29" spans="1:12" s="52" customFormat="1">
+    <row r="29" s="52" customFormat="true">
       <c r="A29" s="62"/>
       <c r="B29" s="62"/>
       <c r="C29" s="62"/>
@@ -34084,7 +34083,7 @@
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
     </row>
-    <row r="30" spans="1:12" s="52" customFormat="1">
+    <row r="30" s="52" customFormat="true">
       <c r="A30" s="62"/>
       <c r="B30" s="62"/>
       <c r="C30" s="62"/>
@@ -34093,7 +34092,7 @@
       <c r="F30" s="62"/>
       <c r="G30" s="62"/>
     </row>
-    <row r="31" spans="1:12" s="52" customFormat="1">
+    <row r="31" s="52" customFormat="true">
       <c r="A31" s="62"/>
       <c r="B31" s="62"/>
       <c r="C31" s="62"/>
@@ -34102,7 +34101,7 @@
       <c r="F31" s="62"/>
       <c r="G31" s="62"/>
     </row>
-    <row r="32" spans="1:12" s="52" customFormat="1">
+    <row r="32" s="52" customFormat="true">
       <c r="A32" s="62"/>
       <c r="B32" s="62"/>
       <c r="C32" s="62"/>
@@ -34141,20 +34140,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="15.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="11.88671875" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="15.33203125" hidden="true" customWidth="true"/>
+    <col min="7" max="7" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="10.88671875" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="10.44140625" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="21.6640625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="10.109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" ht="20.1" customHeight="true">
       <c r="A1" s="107" t="s">
         <v>32</v>
       </c>
@@ -34413,7 +34412,7 @@
       <c r="IT1" s="107"/>
       <c r="IU1" s="107"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" ht="15" thickBot="true">
       <c r="A2" s="128"/>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
@@ -34426,7 +34425,7 @@
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="true">
       <c r="A3" s="129" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -34467,7 +34466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" ht="15" thickBot="true">
       <c r="A4" s="130"/>
       <c r="B4" s="132"/>
       <c r="C4" s="134"/>
@@ -34480,7 +34479,7 @@
       <c r="J4" s="142"/>
       <c r="K4" s="140"/>
     </row>
-    <row r="5" spans="1:255" s="63" customFormat="1">
+    <row r="5" s="63" customFormat="true">
       <c r="A5" s="35">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -34522,7 +34521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="63" customFormat="1">
+    <row r="6" s="63" customFormat="true">
       <c r="A6" s="64">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -34565,7 +34564,7 @@
       </c>
       <c r="M6" s="81"/>
     </row>
-    <row r="7" spans="1:255" s="63" customFormat="1">
+    <row r="7" s="63" customFormat="true">
       <c r="A7" s="64">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -34607,7 +34606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="63" customFormat="1">
+    <row r="8" s="63" customFormat="true">
       <c r="A8" s="64">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -34649,7 +34648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="63" customFormat="1">
+    <row r="9" s="63" customFormat="true">
       <c r="A9" s="64">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -34691,7 +34690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="63" customFormat="1">
+    <row r="10" s="63" customFormat="true">
       <c r="A10" s="64">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -34733,7 +34732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="63" customFormat="1">
+    <row r="11" s="63" customFormat="true">
       <c r="A11" s="64">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -34775,7 +34774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="63" customFormat="1">
+    <row r="12" s="63" customFormat="true">
       <c r="A12" s="64">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -34817,7 +34816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="63" customFormat="1">
+    <row r="13" s="63" customFormat="true">
       <c r="A13" s="64">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -34859,7 +34858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="63" customFormat="1">
+    <row r="14" s="63" customFormat="true">
       <c r="A14" s="64">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -34901,7 +34900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="63" customFormat="1">
+    <row r="15" s="63" customFormat="true">
       <c r="A15" s="64">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -34943,7 +34942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="63" customFormat="1">
+    <row r="16" s="63" customFormat="true">
       <c r="A16" s="64">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -34985,7 +34984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="63" customFormat="1">
+    <row r="17" s="63" customFormat="true">
       <c r="A17" s="64">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -35027,7 +35026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="63" customFormat="1">
+    <row r="18" s="63" customFormat="true">
       <c r="A18" s="64">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -35069,7 +35068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="63" customFormat="1">
+    <row r="19" s="63" customFormat="true">
       <c r="A19" s="64">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -35110,7 +35109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="63" customFormat="1">
+    <row r="20" s="63" customFormat="true">
       <c r="A20" s="64">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -35152,7 +35151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="63" customFormat="1">
+    <row r="21" s="63" customFormat="true">
       <c r="A21" s="64">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -35194,7 +35193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="63" customFormat="1">
+    <row r="22" s="63" customFormat="true">
       <c r="A22" s="64">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -35236,7 +35235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="63" customFormat="1">
+    <row r="23" s="63" customFormat="true">
       <c r="A23" s="64">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -35278,7 +35277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="63" customFormat="1">
+    <row r="24" s="63" customFormat="true">
       <c r="A24" s="64">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -35320,7 +35319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="63" customFormat="1">
+    <row r="25" s="63" customFormat="true">
       <c r="A25" s="64">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -35362,7 +35361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="63" customFormat="1">
+    <row r="26" s="63" customFormat="true">
       <c r="A26" s="64">
         <f>'Сводная таблица'!A26:A26</f>
         <v>22</v>
@@ -35404,7 +35403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="27" s="63" customFormat="true" hidden="true">
       <c r="A27" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -35447,7 +35446,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="28" s="63" customFormat="true" hidden="true">
       <c r="A28" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -35490,7 +35489,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="29" s="63" customFormat="true" hidden="true">
       <c r="A29" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -35533,7 +35532,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="30" s="63" customFormat="true" hidden="true">
       <c r="A30" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -35576,7 +35575,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="31" s="63" customFormat="true" hidden="true">
       <c r="A31" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -35619,7 +35618,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="32" s="63" customFormat="true" hidden="true">
       <c r="A32" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -35662,7 +35661,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="33" s="63" customFormat="true" hidden="true">
       <c r="A33" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -35705,7 +35704,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="34" s="63" customFormat="true" hidden="true">
       <c r="A34" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -35748,7 +35747,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="35" s="63" customFormat="true" hidden="true">
       <c r="A35" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -35791,7 +35790,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="36" s="63" customFormat="true" hidden="true">
       <c r="A36" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -35834,7 +35833,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="37" s="63" customFormat="true" hidden="true">
       <c r="A37" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -35877,7 +35876,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="38" s="63" customFormat="true" hidden="true">
       <c r="A38" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -35920,7 +35919,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="39" s="63" customFormat="true" hidden="true">
       <c r="A39" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -35963,7 +35962,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="40" s="63" customFormat="true" hidden="true">
       <c r="A40" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -36006,7 +36005,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="41" s="63" customFormat="true" hidden="true">
       <c r="A41" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -36049,7 +36048,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="42" s="63" customFormat="true" hidden="true">
       <c r="A42" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -36092,7 +36091,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="43" s="63" customFormat="true" hidden="true">
       <c r="A43" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -36135,7 +36134,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="44" s="63" customFormat="true" hidden="true">
       <c r="A44" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -36178,7 +36177,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="45" s="63" customFormat="true" hidden="true">
       <c r="A45" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -36221,7 +36220,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="63" customFormat="1" ht="15" hidden="1" thickBot="1">
+    <row r="46" s="63" customFormat="true" ht="15" hidden="true" thickBot="true">
       <c r="A46" s="65">
         <f>'Сводная таблица'!A27:A27</f>
         <v>0</v>
@@ -36264,7 +36263,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="52" customFormat="1">
+    <row r="47" s="52" customFormat="true">
       <c r="A47" s="62"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62"/>
@@ -36273,7 +36272,7 @@
       <c r="F47" s="62"/>
       <c r="G47" s="62"/>
     </row>
-    <row r="48" spans="1:11" s="52" customFormat="1">
+    <row r="48" s="52" customFormat="true">
       <c r="A48" s="62"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62"/>
@@ -36282,7 +36281,7 @@
       <c r="F48" s="62"/>
       <c r="G48" s="62"/>
     </row>
-    <row r="49" spans="1:7" s="52" customFormat="1">
+    <row r="49" s="52" customFormat="true">
       <c r="A49" s="62"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
@@ -36291,7 +36290,7 @@
       <c r="F49" s="62"/>
       <c r="G49" s="62"/>
     </row>
-    <row r="50" spans="1:7" s="52" customFormat="1">
+    <row r="50" s="52" customFormat="true">
       <c r="A50" s="62"/>
       <c r="B50" s="62"/>
       <c r="C50" s="62"/>
@@ -36300,7 +36299,7 @@
       <c r="F50" s="62"/>
       <c r="G50" s="62"/>
     </row>
-    <row r="51" spans="1:7" s="52" customFormat="1">
+    <row r="51" s="52" customFormat="true">
       <c r="A51" s="62"/>
       <c r="B51" s="62"/>
       <c r="C51" s="62"/>
@@ -36309,7 +36308,7 @@
       <c r="F51" s="62"/>
       <c r="G51" s="62"/>
     </row>
-    <row r="52" spans="1:7" s="52" customFormat="1">
+    <row r="52" s="52" customFormat="true">
       <c r="A52" s="62"/>
       <c r="B52" s="62"/>
       <c r="C52" s="62"/>
@@ -36348,13 +36347,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="14.44140625" hidden="true" customWidth="true"/>
+    <col min="8" max="8" width="10.5546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" ht="20.1" customHeight="true">
       <c r="A1" s="107" t="s">
         <v>32</v>
       </c>
@@ -36614,7 +36613,7 @@
       <c r="IU1" s="107"/>
       <c r="IV1" s="107"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" ht="15" thickBot="true">
       <c r="A2" s="128"/>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
@@ -36627,7 +36626,7 @@
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
     </row>
-    <row r="3" spans="1:256">
+    <row r="3">
       <c r="A3" s="129" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -36668,7 +36667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" ht="15" thickBot="true">
       <c r="A4" s="130"/>
       <c r="B4" s="132"/>
       <c r="C4" s="134"/>
@@ -36681,7 +36680,7 @@
       <c r="J4" s="142"/>
       <c r="K4" s="140"/>
     </row>
-    <row r="5" spans="1:256" s="63" customFormat="1">
+    <row r="5" s="63" customFormat="true">
       <c r="A5" s="71">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -36723,7 +36722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="63" customFormat="1">
+    <row r="6" s="63" customFormat="true">
       <c r="A6" s="64">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -36766,7 +36765,7 @@
       </c>
       <c r="M6" s="81"/>
     </row>
-    <row r="7" spans="1:256" s="63" customFormat="1">
+    <row r="7" s="63" customFormat="true">
       <c r="A7" s="64">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -36808,7 +36807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="63" customFormat="1">
+    <row r="8" s="63" customFormat="true">
       <c r="A8" s="64">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -36850,7 +36849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="63" customFormat="1">
+    <row r="9" s="63" customFormat="true">
       <c r="A9" s="64">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -36892,7 +36891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="63" customFormat="1">
+    <row r="10" s="63" customFormat="true">
       <c r="A10" s="64">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -36934,7 +36933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="63" customFormat="1">
+    <row r="11" s="63" customFormat="true">
       <c r="A11" s="64">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -36976,7 +36975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="63" customFormat="1">
+    <row r="12" s="63" customFormat="true">
       <c r="A12" s="64">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -37018,7 +37017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="63" customFormat="1">
+    <row r="13" s="63" customFormat="true">
       <c r="A13" s="64">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -37060,7 +37059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="63" customFormat="1">
+    <row r="14" s="63" customFormat="true">
       <c r="A14" s="64">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -37102,7 +37101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="63" customFormat="1">
+    <row r="15" s="63" customFormat="true">
       <c r="A15" s="64">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -37144,7 +37143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="63" customFormat="1">
+    <row r="16" s="63" customFormat="true">
       <c r="A16" s="64">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -37186,7 +37185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="63" customFormat="1">
+    <row r="17" s="63" customFormat="true">
       <c r="A17" s="64">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -37228,7 +37227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="63" customFormat="1">
+    <row r="18" s="63" customFormat="true">
       <c r="A18" s="64">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -37270,7 +37269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="63" customFormat="1">
+    <row r="19" s="63" customFormat="true">
       <c r="A19" s="64">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -37311,7 +37310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="63" customFormat="1">
+    <row r="20" s="63" customFormat="true">
       <c r="A20" s="64">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -37353,7 +37352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="63" customFormat="1">
+    <row r="21" s="63" customFormat="true">
       <c r="A21" s="64">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -37395,7 +37394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="63" customFormat="1">
+    <row r="22" s="63" customFormat="true">
       <c r="A22" s="64">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -37437,7 +37436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="63" customFormat="1">
+    <row r="23" s="63" customFormat="true">
       <c r="A23" s="64">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -37479,7 +37478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="63" customFormat="1">
+    <row r="24" s="63" customFormat="true">
       <c r="A24" s="64">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -37521,7 +37520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="63" customFormat="1">
+    <row r="25" s="63" customFormat="true">
       <c r="A25" s="64">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -37563,7 +37562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="63" customFormat="1">
+    <row r="26" s="63" customFormat="true">
       <c r="A26" s="64">
         <f>'Сводная таблица'!A26:A26</f>
         <v>22</v>
@@ -37605,7 +37604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="27" s="63" customFormat="true" hidden="true">
       <c r="A27" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -37648,7 +37647,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="28" s="63" customFormat="true" hidden="true">
       <c r="A28" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -37691,7 +37690,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="29" s="63" customFormat="true" hidden="true">
       <c r="A29" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -37734,7 +37733,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="30" s="63" customFormat="true" hidden="true">
       <c r="A30" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -37777,7 +37776,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="31" s="63" customFormat="true" hidden="true">
       <c r="A31" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -37820,7 +37819,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="32" s="63" customFormat="true" hidden="true">
       <c r="A32" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -37863,7 +37862,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="33" s="63" customFormat="true" hidden="true">
       <c r="A33" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -37906,7 +37905,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="34" s="63" customFormat="true" hidden="true">
       <c r="A34" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -37949,7 +37948,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="35" s="63" customFormat="true" hidden="true">
       <c r="A35" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -37992,7 +37991,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="36" s="63" customFormat="true" hidden="true">
       <c r="A36" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -38035,7 +38034,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="37" s="63" customFormat="true" hidden="true">
       <c r="A37" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -38078,7 +38077,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="38" s="63" customFormat="true" hidden="true">
       <c r="A38" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -38121,7 +38120,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="39" s="63" customFormat="true" hidden="true">
       <c r="A39" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -38164,7 +38163,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="40" s="63" customFormat="true" hidden="true">
       <c r="A40" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -38207,7 +38206,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="41" s="63" customFormat="true" hidden="true">
       <c r="A41" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -38250,7 +38249,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="42" s="63" customFormat="true" hidden="true">
       <c r="A42" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -38293,7 +38292,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="43" s="63" customFormat="true" hidden="true">
       <c r="A43" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -38336,7 +38335,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="44" s="63" customFormat="true" hidden="true">
       <c r="A44" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -38379,7 +38378,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="45" s="63" customFormat="true" hidden="true">
       <c r="A45" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -38422,7 +38421,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="63" customFormat="1" ht="15" hidden="1" thickBot="1">
+    <row r="46" s="63" customFormat="true" ht="15" hidden="true" thickBot="true">
       <c r="A46" s="65">
         <f>'Сводная таблица'!A27:A27</f>
         <v>0</v>
@@ -38495,13 +38494,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="14.44140625" hidden="true" customWidth="true"/>
+    <col min="8" max="8" width="10.5546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" ht="20.1" customHeight="true">
       <c r="A1" s="107" t="s">
         <v>32</v>
       </c>
@@ -38761,7 +38760,7 @@
       <c r="IU1" s="107"/>
       <c r="IV1" s="107"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" ht="15" thickBot="true">
       <c r="A2" s="128"/>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
@@ -38774,7 +38773,7 @@
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="true">
       <c r="A3" s="129" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -38815,7 +38814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" ht="15" thickBot="true">
       <c r="A4" s="130"/>
       <c r="B4" s="132"/>
       <c r="C4" s="134"/>
@@ -38828,7 +38827,7 @@
       <c r="J4" s="142"/>
       <c r="K4" s="140"/>
     </row>
-    <row r="5" spans="1:256" s="63" customFormat="1">
+    <row r="5" s="63" customFormat="true">
       <c r="A5" s="71">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -38870,7 +38869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="63" customFormat="1">
+    <row r="6" s="63" customFormat="true">
       <c r="A6" s="64">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -38913,7 +38912,7 @@
       </c>
       <c r="M6" s="81"/>
     </row>
-    <row r="7" spans="1:256" s="63" customFormat="1">
+    <row r="7" s="63" customFormat="true">
       <c r="A7" s="64">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -38955,7 +38954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="63" customFormat="1">
+    <row r="8" s="63" customFormat="true">
       <c r="A8" s="64">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -38997,7 +38996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="63" customFormat="1">
+    <row r="9" s="63" customFormat="true">
       <c r="A9" s="64">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -39039,7 +39038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="63" customFormat="1">
+    <row r="10" s="63" customFormat="true">
       <c r="A10" s="64">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -39081,7 +39080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="63" customFormat="1">
+    <row r="11" s="63" customFormat="true">
       <c r="A11" s="64">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -39123,7 +39122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="63" customFormat="1">
+    <row r="12" s="63" customFormat="true">
       <c r="A12" s="64">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -39165,7 +39164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="63" customFormat="1">
+    <row r="13" s="63" customFormat="true">
       <c r="A13" s="64">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -39207,7 +39206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="63" customFormat="1">
+    <row r="14" s="63" customFormat="true">
       <c r="A14" s="64">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -39249,7 +39248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="63" customFormat="1">
+    <row r="15" s="63" customFormat="true">
       <c r="A15" s="64">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -39291,7 +39290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="63" customFormat="1">
+    <row r="16" s="63" customFormat="true">
       <c r="A16" s="64">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -39333,7 +39332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="63" customFormat="1">
+    <row r="17" s="63" customFormat="true">
       <c r="A17" s="64">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -39375,7 +39374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="63" customFormat="1">
+    <row r="18" s="63" customFormat="true">
       <c r="A18" s="64">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -39417,7 +39416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="63" customFormat="1">
+    <row r="19" s="63" customFormat="true">
       <c r="A19" s="64">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -39458,7 +39457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="63" customFormat="1">
+    <row r="20" s="63" customFormat="true">
       <c r="A20" s="64">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -39500,7 +39499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="63" customFormat="1">
+    <row r="21" s="63" customFormat="true">
       <c r="A21" s="64">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -39542,7 +39541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="63" customFormat="1">
+    <row r="22" s="63" customFormat="true">
       <c r="A22" s="64">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -39584,7 +39583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="63" customFormat="1">
+    <row r="23" s="63" customFormat="true">
       <c r="A23" s="64">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -39626,7 +39625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="63" customFormat="1">
+    <row r="24" s="63" customFormat="true">
       <c r="A24" s="64">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -39668,7 +39667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="63" customFormat="1">
+    <row r="25" s="63" customFormat="true">
       <c r="A25" s="64">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -39710,7 +39709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="63" customFormat="1">
+    <row r="26" s="63" customFormat="true">
       <c r="A26" s="64">
         <f>'Сводная таблица'!A26:A26</f>
         <v>22</v>
@@ -39752,7 +39751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="27" s="63" customFormat="true" hidden="true">
       <c r="A27" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -39795,7 +39794,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="28" s="63" customFormat="true" hidden="true">
       <c r="A28" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -39838,7 +39837,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="29" s="63" customFormat="true" hidden="true">
       <c r="A29" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -39881,7 +39880,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="30" s="63" customFormat="true" hidden="true">
       <c r="A30" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -39924,7 +39923,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="31" s="63" customFormat="true" hidden="true">
       <c r="A31" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -39967,7 +39966,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="32" s="63" customFormat="true" hidden="true">
       <c r="A32" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40010,7 +40009,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="33" s="63" customFormat="true" hidden="true">
       <c r="A33" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40053,7 +40052,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="34" s="63" customFormat="true" hidden="true">
       <c r="A34" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40096,7 +40095,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="35" s="63" customFormat="true" hidden="true">
       <c r="A35" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40139,7 +40138,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="36" s="63" customFormat="true" hidden="true">
       <c r="A36" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40182,7 +40181,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="37" s="63" customFormat="true" hidden="true">
       <c r="A37" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40225,7 +40224,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="38" s="63" customFormat="true" hidden="true">
       <c r="A38" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40268,7 +40267,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="39" s="63" customFormat="true" hidden="true">
       <c r="A39" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40311,7 +40310,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="40" s="63" customFormat="true" hidden="true">
       <c r="A40" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40354,7 +40353,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="41" s="63" customFormat="true" hidden="true">
       <c r="A41" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40397,7 +40396,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="42" s="63" customFormat="true" hidden="true">
       <c r="A42" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40440,7 +40439,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="43" s="63" customFormat="true" hidden="true">
       <c r="A43" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40483,7 +40482,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="44" s="63" customFormat="true" hidden="true">
       <c r="A44" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40526,7 +40525,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="45" s="63" customFormat="true" hidden="true">
       <c r="A45" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -40569,7 +40568,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="63" customFormat="1" ht="15" hidden="1" thickBot="1">
+    <row r="46" s="63" customFormat="true" ht="15" hidden="true" thickBot="true">
       <c r="A46" s="65">
         <f>'Сводная таблица'!A27:A27</f>
         <v>0</v>
@@ -40642,13 +40641,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="14.44140625" hidden="true" customWidth="true"/>
+    <col min="8" max="8" width="10.5546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" ht="20.1" customHeight="true">
       <c r="A1" s="107" t="s">
         <v>32</v>
       </c>
@@ -40908,7 +40907,7 @@
       <c r="IU1" s="107"/>
       <c r="IV1" s="107"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" ht="15" thickBot="true">
       <c r="A2" s="128"/>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
@@ -40921,7 +40920,7 @@
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="true">
       <c r="A3" s="129" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -40962,7 +40961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" ht="15" thickBot="true">
       <c r="A4" s="130"/>
       <c r="B4" s="132"/>
       <c r="C4" s="134"/>
@@ -40975,7 +40974,7 @@
       <c r="J4" s="142"/>
       <c r="K4" s="140"/>
     </row>
-    <row r="5" spans="1:256" s="63" customFormat="1">
+    <row r="5" s="63" customFormat="true">
       <c r="A5" s="71">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -41017,7 +41016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="63" customFormat="1">
+    <row r="6" s="63" customFormat="true">
       <c r="A6" s="64">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -41060,7 +41059,7 @@
       </c>
       <c r="M6" s="81"/>
     </row>
-    <row r="7" spans="1:256" s="63" customFormat="1">
+    <row r="7" s="63" customFormat="true">
       <c r="A7" s="64">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -41102,7 +41101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="63" customFormat="1">
+    <row r="8" s="63" customFormat="true">
       <c r="A8" s="64">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -41144,7 +41143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="63" customFormat="1">
+    <row r="9" s="63" customFormat="true">
       <c r="A9" s="64">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -41186,7 +41185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="63" customFormat="1">
+    <row r="10" s="63" customFormat="true">
       <c r="A10" s="64">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -41228,7 +41227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="63" customFormat="1">
+    <row r="11" s="63" customFormat="true">
       <c r="A11" s="64">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -41270,7 +41269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="63" customFormat="1">
+    <row r="12" s="63" customFormat="true">
       <c r="A12" s="64">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -41312,7 +41311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="63" customFormat="1">
+    <row r="13" s="63" customFormat="true">
       <c r="A13" s="64">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -41354,7 +41353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="63" customFormat="1">
+    <row r="14" s="63" customFormat="true">
       <c r="A14" s="64">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -41396,7 +41395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="63" customFormat="1">
+    <row r="15" s="63" customFormat="true">
       <c r="A15" s="64">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -41438,7 +41437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="63" customFormat="1">
+    <row r="16" s="63" customFormat="true">
       <c r="A16" s="64">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -41480,7 +41479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="63" customFormat="1">
+    <row r="17" s="63" customFormat="true">
       <c r="A17" s="64">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -41522,7 +41521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="63" customFormat="1">
+    <row r="18" s="63" customFormat="true">
       <c r="A18" s="64">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -41564,7 +41563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="63" customFormat="1">
+    <row r="19" s="63" customFormat="true">
       <c r="A19" s="64">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -41605,7 +41604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="63" customFormat="1">
+    <row r="20" s="63" customFormat="true">
       <c r="A20" s="64">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -41647,7 +41646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="63" customFormat="1">
+    <row r="21" s="63" customFormat="true">
       <c r="A21" s="64">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -41689,7 +41688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="63" customFormat="1">
+    <row r="22" s="63" customFormat="true">
       <c r="A22" s="64">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -41731,7 +41730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="63" customFormat="1">
+    <row r="23" s="63" customFormat="true">
       <c r="A23" s="64">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -41773,7 +41772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="63" customFormat="1">
+    <row r="24" s="63" customFormat="true">
       <c r="A24" s="64">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -41815,7 +41814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="63" customFormat="1">
+    <row r="25" s="63" customFormat="true">
       <c r="A25" s="64">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -41857,7 +41856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="63" customFormat="1">
+    <row r="26" s="63" customFormat="true">
       <c r="A26" s="64">
         <f>'Сводная таблица'!A26:A26</f>
         <v>22</v>
@@ -41929,13 +41928,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="14.44140625" hidden="true" customWidth="true"/>
+    <col min="8" max="8" width="10.5546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" ht="20.1" customHeight="true">
       <c r="A1" s="107" t="s">
         <v>32</v>
       </c>
@@ -42195,7 +42194,7 @@
       <c r="IU1" s="107"/>
       <c r="IV1" s="107"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" ht="15" thickBot="true">
       <c r="A2" s="128"/>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
@@ -42208,7 +42207,7 @@
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="true">
       <c r="A3" s="129" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -42249,7 +42248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" ht="15" thickBot="true">
       <c r="A4" s="130"/>
       <c r="B4" s="132"/>
       <c r="C4" s="134"/>
@@ -42262,7 +42261,7 @@
       <c r="J4" s="142"/>
       <c r="K4" s="140"/>
     </row>
-    <row r="5" spans="1:256" s="63" customFormat="1">
+    <row r="5" s="63" customFormat="true">
       <c r="A5" s="71">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -42304,7 +42303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="63" customFormat="1">
+    <row r="6" s="63" customFormat="true">
       <c r="A6" s="64">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -42347,7 +42346,7 @@
       </c>
       <c r="M6" s="81"/>
     </row>
-    <row r="7" spans="1:256" s="63" customFormat="1">
+    <row r="7" s="63" customFormat="true">
       <c r="A7" s="64">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -42389,7 +42388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="63" customFormat="1">
+    <row r="8" s="63" customFormat="true">
       <c r="A8" s="64">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -42431,7 +42430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="63" customFormat="1">
+    <row r="9" s="63" customFormat="true">
       <c r="A9" s="64">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -42473,7 +42472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="63" customFormat="1">
+    <row r="10" s="63" customFormat="true">
       <c r="A10" s="64">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -42515,7 +42514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="63" customFormat="1">
+    <row r="11" s="63" customFormat="true">
       <c r="A11" s="64">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -42557,7 +42556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="63" customFormat="1">
+    <row r="12" s="63" customFormat="true">
       <c r="A12" s="64">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -42599,7 +42598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="63" customFormat="1">
+    <row r="13" s="63" customFormat="true">
       <c r="A13" s="64">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -42641,7 +42640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="63" customFormat="1">
+    <row r="14" s="63" customFormat="true">
       <c r="A14" s="64">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -42683,7 +42682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="63" customFormat="1">
+    <row r="15" s="63" customFormat="true">
       <c r="A15" s="64">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -42725,7 +42724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="63" customFormat="1">
+    <row r="16" s="63" customFormat="true">
       <c r="A16" s="64">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -42767,7 +42766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="63" customFormat="1">
+    <row r="17" s="63" customFormat="true">
       <c r="A17" s="64">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -42809,7 +42808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="63" customFormat="1">
+    <row r="18" s="63" customFormat="true">
       <c r="A18" s="64">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -42851,7 +42850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="63" customFormat="1">
+    <row r="19" s="63" customFormat="true">
       <c r="A19" s="64">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -42892,7 +42891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="63" customFormat="1">
+    <row r="20" s="63" customFormat="true">
       <c r="A20" s="64">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -42934,7 +42933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="63" customFormat="1">
+    <row r="21" s="63" customFormat="true">
       <c r="A21" s="64">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -42976,7 +42975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="63" customFormat="1">
+    <row r="22" s="63" customFormat="true">
       <c r="A22" s="64">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -43018,7 +43017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="63" customFormat="1">
+    <row r="23" s="63" customFormat="true">
       <c r="A23" s="64">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -43060,7 +43059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="63" customFormat="1">
+    <row r="24" s="63" customFormat="true">
       <c r="A24" s="64">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -43102,7 +43101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="63" customFormat="1">
+    <row r="25" s="63" customFormat="true">
       <c r="A25" s="64">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -43144,7 +43143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="63" customFormat="1">
+    <row r="26" s="63" customFormat="true">
       <c r="A26" s="64">
         <f>'Сводная таблица'!A26:A26</f>
         <v>22</v>
@@ -43186,7 +43185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="27" s="63" customFormat="true" hidden="true">
       <c r="A27" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43229,7 +43228,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="28" s="63" customFormat="true" hidden="true">
       <c r="A28" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43272,7 +43271,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="29" s="63" customFormat="true" hidden="true">
       <c r="A29" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43315,7 +43314,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="30" s="63" customFormat="true" hidden="true">
       <c r="A30" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43358,7 +43357,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="31" s="63" customFormat="true" hidden="true">
       <c r="A31" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43401,7 +43400,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="32" s="63" customFormat="true" hidden="true">
       <c r="A32" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43444,7 +43443,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="33" s="63" customFormat="true" hidden="true">
       <c r="A33" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43487,7 +43486,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="34" s="63" customFormat="true" hidden="true">
       <c r="A34" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43530,7 +43529,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="35" s="63" customFormat="true" hidden="true">
       <c r="A35" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43573,7 +43572,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="36" s="63" customFormat="true" hidden="true">
       <c r="A36" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43616,7 +43615,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="37" s="63" customFormat="true" hidden="true">
       <c r="A37" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43659,7 +43658,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="38" s="63" customFormat="true" hidden="true">
       <c r="A38" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43702,7 +43701,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="39" s="63" customFormat="true" hidden="true">
       <c r="A39" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43745,7 +43744,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="40" s="63" customFormat="true" hidden="true">
       <c r="A40" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43788,7 +43787,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="41" s="63" customFormat="true" hidden="true">
       <c r="A41" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43831,7 +43830,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="42" s="63" customFormat="true" hidden="true">
       <c r="A42" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43874,7 +43873,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="43" s="63" customFormat="true" hidden="true">
       <c r="A43" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43917,7 +43916,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="44" s="63" customFormat="true" hidden="true">
       <c r="A44" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -43960,7 +43959,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="45" s="63" customFormat="true" hidden="true">
       <c r="A45" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -44003,7 +44002,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="63" customFormat="1" ht="15" hidden="1" thickBot="1">
+    <row r="46" s="63" customFormat="true" ht="15" hidden="true" thickBot="true">
       <c r="A46" s="65">
         <f>'Сводная таблица'!A27:A27</f>
         <v>0</v>
@@ -44076,13 +44075,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="11.109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="14.44140625" hidden="true" customWidth="true"/>
+    <col min="8" max="8" width="10.5546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" ht="20.1" customHeight="true">
       <c r="A1" s="107" t="s">
         <v>32</v>
       </c>
@@ -44342,7 +44341,7 @@
       <c r="IU1" s="107"/>
       <c r="IV1" s="107"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" ht="15" thickBot="true">
       <c r="A2" s="128"/>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
@@ -44355,7 +44354,7 @@
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="true">
       <c r="A3" s="129" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -44396,7 +44395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" ht="15" thickBot="true">
       <c r="A4" s="130"/>
       <c r="B4" s="132"/>
       <c r="C4" s="134"/>
@@ -44409,7 +44408,7 @@
       <c r="J4" s="142"/>
       <c r="K4" s="140"/>
     </row>
-    <row r="5" spans="1:256" s="63" customFormat="1">
+    <row r="5" s="63" customFormat="true">
       <c r="A5" s="71">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -44451,7 +44450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="63" customFormat="1">
+    <row r="6" s="63" customFormat="true">
       <c r="A6" s="64">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -44494,7 +44493,7 @@
       </c>
       <c r="M6" s="81"/>
     </row>
-    <row r="7" spans="1:256" s="63" customFormat="1">
+    <row r="7" s="63" customFormat="true">
       <c r="A7" s="64">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -44536,7 +44535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="63" customFormat="1">
+    <row r="8" s="63" customFormat="true">
       <c r="A8" s="64">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -44578,7 +44577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="63" customFormat="1">
+    <row r="9" s="63" customFormat="true">
       <c r="A9" s="64">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -44620,7 +44619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="63" customFormat="1">
+    <row r="10" s="63" customFormat="true">
       <c r="A10" s="64">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -44662,7 +44661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="63" customFormat="1">
+    <row r="11" s="63" customFormat="true">
       <c r="A11" s="64">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -44704,7 +44703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="63" customFormat="1">
+    <row r="12" s="63" customFormat="true">
       <c r="A12" s="64">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -44746,7 +44745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="63" customFormat="1">
+    <row r="13" s="63" customFormat="true">
       <c r="A13" s="64">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -44788,7 +44787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="63" customFormat="1">
+    <row r="14" s="63" customFormat="true">
       <c r="A14" s="64">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -44830,7 +44829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="63" customFormat="1">
+    <row r="15" s="63" customFormat="true">
       <c r="A15" s="64">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -44872,7 +44871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="63" customFormat="1">
+    <row r="16" s="63" customFormat="true">
       <c r="A16" s="64">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -44914,7 +44913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="63" customFormat="1">
+    <row r="17" s="63" customFormat="true">
       <c r="A17" s="64">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -44956,7 +44955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="63" customFormat="1">
+    <row r="18" s="63" customFormat="true">
       <c r="A18" s="64">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -44998,7 +44997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="63" customFormat="1">
+    <row r="19" s="63" customFormat="true">
       <c r="A19" s="64">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -45039,7 +45038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="63" customFormat="1">
+    <row r="20" s="63" customFormat="true">
       <c r="A20" s="64">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -45081,7 +45080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="63" customFormat="1">
+    <row r="21" s="63" customFormat="true">
       <c r="A21" s="64">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -45123,7 +45122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="63" customFormat="1">
+    <row r="22" s="63" customFormat="true">
       <c r="A22" s="64">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -45165,7 +45164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="63" customFormat="1">
+    <row r="23" s="63" customFormat="true">
       <c r="A23" s="64">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -45207,7 +45206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="63" customFormat="1">
+    <row r="24" s="63" customFormat="true">
       <c r="A24" s="64">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -45249,7 +45248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="63" customFormat="1">
+    <row r="25" s="63" customFormat="true">
       <c r="A25" s="64">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -45291,7 +45290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="63" customFormat="1">
+    <row r="26" s="63" customFormat="true">
       <c r="A26" s="64">
         <f>'Сводная таблица'!A26:A26</f>
         <v>22</v>
@@ -45333,7 +45332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="27" s="63" customFormat="true" hidden="true">
       <c r="A27" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45376,7 +45375,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="28" s="63" customFormat="true" hidden="true">
       <c r="A28" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45419,7 +45418,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="29" s="63" customFormat="true" hidden="true">
       <c r="A29" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45462,7 +45461,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="30" s="63" customFormat="true" hidden="true">
       <c r="A30" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45505,7 +45504,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="31" s="63" customFormat="true" hidden="true">
       <c r="A31" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45548,7 +45547,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="32" s="63" customFormat="true" hidden="true">
       <c r="A32" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45591,7 +45590,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="33" s="63" customFormat="true" hidden="true">
       <c r="A33" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45634,7 +45633,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="34" s="63" customFormat="true" hidden="true">
       <c r="A34" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45677,7 +45676,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="35" s="63" customFormat="true" hidden="true">
       <c r="A35" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45720,7 +45719,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="36" s="63" customFormat="true" hidden="true">
       <c r="A36" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45763,7 +45762,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="37" s="63" customFormat="true" hidden="true">
       <c r="A37" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45806,7 +45805,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="38" s="63" customFormat="true" hidden="true">
       <c r="A38" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45849,7 +45848,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="39" s="63" customFormat="true" hidden="true">
       <c r="A39" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45892,7 +45891,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="40" s="63" customFormat="true" hidden="true">
       <c r="A40" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45935,7 +45934,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="41" s="63" customFormat="true" hidden="true">
       <c r="A41" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -45978,7 +45977,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="42" s="63" customFormat="true" hidden="true">
       <c r="A42" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -46021,7 +46020,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="43" s="63" customFormat="true" hidden="true">
       <c r="A43" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -46064,7 +46063,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="44" s="63" customFormat="true" hidden="true">
       <c r="A44" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -46107,7 +46106,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="63" customFormat="1" hidden="1">
+    <row r="45" s="63" customFormat="true" hidden="true">
       <c r="A45" s="64" t="e">
         <f>'Сводная таблица'!#REF!</f>
         <v>#REF!</v>
@@ -46150,7 +46149,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="63" customFormat="1" ht="15" hidden="1" thickBot="1">
+    <row r="46" s="63" customFormat="true" ht="15" hidden="true" thickBot="true">
       <c r="A46" s="65">
         <f>'Сводная таблица'!A27:A27</f>
         <v>0</v>
